--- a/TestResult_OCR_v1.xlsx
+++ b/TestResult_OCR_v1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goqkr\Desktop\업무폴더-2025\콜마홀딩스 제안\2. 개발\미생물연구팀\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goqkr\Desktop\업무폴더-2025\콜마홀딩스 제안\2. 개발\미생물연구팀_NEW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB48DA8F-9735-4B68-8366-CB65FBEFDD76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760161DD-2E1B-4B0D-826C-D9265D50917E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="1900" windowWidth="25580" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="성적서 양식" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="44">
   <si>
     <t xml:space="preserve">보존력 시험결과 보고서 </t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -52,10 +52,6 @@
     <t>제 품 명</t>
   </si>
   <si>
-    <t>폼클렌저</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>시험번호</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -68,10 +64,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>EG0403-111</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>pH</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -80,10 +72,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>제품분류</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -92,15 +80,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>수분산</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>보존제</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2-HEXANEDIOL 2.0%, SENSIVA SC 50 2.0%, MICROCARE EMOLLIENT DCG 2.0%, DERMOSOFT OCTIOL 2.0%</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1178,25 +1158,253 @@
     <xf numFmtId="184" fontId="8" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="2" borderId="24" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="2" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="2" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="2" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="2" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="2" borderId="27" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="182" fontId="11" fillId="3" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="11" fillId="3" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="11" fillId="3" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1208,70 +1416,13 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="11" fillId="3" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="11" fillId="3" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="11" fillId="3" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="184" fontId="8" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1280,193 +1431,22 @@
     <xf numFmtId="184" fontId="8" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="12" fillId="2" borderId="24" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="12" fillId="2" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="12" fillId="2" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="12" fillId="2" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="12" fillId="2" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="12" fillId="2" borderId="27" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1757,8 +1737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:DL60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AO47" sqref="AO47"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R49" sqref="R49:T49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.26953125" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1913,89 +1893,89 @@
       <c r="AE2" s="4"/>
       <c r="AF2" s="4"/>
       <c r="AG2" s="6"/>
-      <c r="AH2" s="159"/>
-      <c r="AI2" s="159"/>
-      <c r="AJ2" s="159"/>
-      <c r="AK2" s="159"/>
-      <c r="AL2" s="159"/>
-      <c r="AM2" s="159"/>
-      <c r="AN2" s="159"/>
-      <c r="AO2" s="159"/>
-      <c r="AP2" s="159"/>
-      <c r="AQ2" s="159"/>
-      <c r="AR2" s="159"/>
-      <c r="AS2" s="159"/>
-      <c r="AT2" s="159"/>
-      <c r="AU2" s="159"/>
-      <c r="AV2" s="159"/>
-      <c r="AW2" s="160"/>
-      <c r="AX2" s="160"/>
-      <c r="AY2" s="160"/>
-      <c r="AZ2" s="160"/>
-      <c r="BA2" s="160"/>
-      <c r="BB2" s="160"/>
-      <c r="BC2" s="160"/>
-      <c r="BD2" s="160"/>
-      <c r="BE2" s="160"/>
-      <c r="BF2" s="160"/>
-      <c r="BG2" s="160"/>
-      <c r="BH2" s="160"/>
-      <c r="BI2" s="159"/>
-      <c r="BJ2" s="159"/>
-      <c r="BK2" s="159"/>
-      <c r="BL2" s="159"/>
-      <c r="BM2" s="159"/>
-      <c r="BN2" s="159"/>
-      <c r="BO2" s="159"/>
-      <c r="BP2" s="159"/>
-      <c r="BQ2" s="159"/>
-      <c r="BR2" s="159"/>
-      <c r="BS2" s="159"/>
-      <c r="BT2" s="159"/>
-      <c r="BU2" s="159"/>
-      <c r="BV2" s="159"/>
-      <c r="BW2" s="159"/>
-      <c r="BX2" s="159"/>
-      <c r="BY2" s="160"/>
-      <c r="BZ2" s="160"/>
-      <c r="CA2" s="160"/>
-      <c r="CB2" s="160"/>
-      <c r="CC2" s="160"/>
-      <c r="CD2" s="160"/>
-      <c r="CE2" s="160"/>
-      <c r="CF2" s="160"/>
-      <c r="CG2" s="160"/>
-      <c r="CH2" s="160"/>
-      <c r="CI2" s="160"/>
-      <c r="CJ2" s="160"/>
-      <c r="CK2" s="159"/>
-      <c r="CL2" s="159"/>
-      <c r="CM2" s="159"/>
-      <c r="CN2" s="159"/>
-      <c r="CO2" s="159"/>
-      <c r="CP2" s="159"/>
-      <c r="CQ2" s="159"/>
-      <c r="CR2" s="159"/>
-      <c r="CS2" s="159"/>
-      <c r="CT2" s="159"/>
-      <c r="CU2" s="159"/>
-      <c r="CV2" s="159"/>
-      <c r="CW2" s="159"/>
-      <c r="CX2" s="159"/>
-      <c r="CY2" s="159"/>
-      <c r="CZ2" s="159"/>
-      <c r="DA2" s="160"/>
-      <c r="DB2" s="160"/>
-      <c r="DC2" s="160"/>
-      <c r="DD2" s="160"/>
-      <c r="DE2" s="160"/>
-      <c r="DF2" s="160"/>
-      <c r="DG2" s="160"/>
-      <c r="DH2" s="160"/>
-      <c r="DI2" s="160"/>
-      <c r="DJ2" s="160"/>
-      <c r="DK2" s="160"/>
-      <c r="DL2" s="160"/>
+      <c r="AH2" s="79"/>
+      <c r="AI2" s="79"/>
+      <c r="AJ2" s="79"/>
+      <c r="AK2" s="79"/>
+      <c r="AL2" s="79"/>
+      <c r="AM2" s="79"/>
+      <c r="AN2" s="79"/>
+      <c r="AO2" s="79"/>
+      <c r="AP2" s="79"/>
+      <c r="AQ2" s="79"/>
+      <c r="AR2" s="79"/>
+      <c r="AS2" s="79"/>
+      <c r="AT2" s="79"/>
+      <c r="AU2" s="79"/>
+      <c r="AV2" s="79"/>
+      <c r="AW2" s="67"/>
+      <c r="AX2" s="67"/>
+      <c r="AY2" s="67"/>
+      <c r="AZ2" s="67"/>
+      <c r="BA2" s="67"/>
+      <c r="BB2" s="67"/>
+      <c r="BC2" s="67"/>
+      <c r="BD2" s="67"/>
+      <c r="BE2" s="67"/>
+      <c r="BF2" s="67"/>
+      <c r="BG2" s="67"/>
+      <c r="BH2" s="67"/>
+      <c r="BI2" s="79"/>
+      <c r="BJ2" s="79"/>
+      <c r="BK2" s="79"/>
+      <c r="BL2" s="79"/>
+      <c r="BM2" s="79"/>
+      <c r="BN2" s="79"/>
+      <c r="BO2" s="79"/>
+      <c r="BP2" s="79"/>
+      <c r="BQ2" s="79"/>
+      <c r="BR2" s="79"/>
+      <c r="BS2" s="79"/>
+      <c r="BT2" s="79"/>
+      <c r="BU2" s="79"/>
+      <c r="BV2" s="79"/>
+      <c r="BW2" s="79"/>
+      <c r="BX2" s="79"/>
+      <c r="BY2" s="67"/>
+      <c r="BZ2" s="67"/>
+      <c r="CA2" s="67"/>
+      <c r="CB2" s="67"/>
+      <c r="CC2" s="67"/>
+      <c r="CD2" s="67"/>
+      <c r="CE2" s="67"/>
+      <c r="CF2" s="67"/>
+      <c r="CG2" s="67"/>
+      <c r="CH2" s="67"/>
+      <c r="CI2" s="67"/>
+      <c r="CJ2" s="67"/>
+      <c r="CK2" s="79"/>
+      <c r="CL2" s="79"/>
+      <c r="CM2" s="79"/>
+      <c r="CN2" s="79"/>
+      <c r="CO2" s="79"/>
+      <c r="CP2" s="79"/>
+      <c r="CQ2" s="79"/>
+      <c r="CR2" s="79"/>
+      <c r="CS2" s="79"/>
+      <c r="CT2" s="79"/>
+      <c r="CU2" s="79"/>
+      <c r="CV2" s="79"/>
+      <c r="CW2" s="79"/>
+      <c r="CX2" s="79"/>
+      <c r="CY2" s="79"/>
+      <c r="CZ2" s="79"/>
+      <c r="DA2" s="67"/>
+      <c r="DB2" s="67"/>
+      <c r="DC2" s="67"/>
+      <c r="DD2" s="67"/>
+      <c r="DE2" s="67"/>
+      <c r="DF2" s="67"/>
+      <c r="DG2" s="67"/>
+      <c r="DH2" s="67"/>
+      <c r="DI2" s="67"/>
+      <c r="DJ2" s="67"/>
+      <c r="DK2" s="67"/>
+      <c r="DL2" s="67"/>
     </row>
     <row r="3" spans="1:116" ht="28" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -2004,9 +1984,7 @@
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
-      <c r="E3" s="64" t="s">
-        <v>3</v>
-      </c>
+      <c r="E3" s="64"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
@@ -2025,20 +2003,20 @@
       <c r="U3" s="13"/>
       <c r="V3" s="13"/>
       <c r="W3" s="14"/>
-      <c r="X3" s="132" t="s">
+      <c r="X3" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y3" s="69"/>
+      <c r="Z3" s="70"/>
+      <c r="AA3" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="Y3" s="133"/>
-      <c r="Z3" s="134"/>
-      <c r="AA3" s="135" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB3" s="136"/>
-      <c r="AC3" s="136"/>
-      <c r="AD3" s="136"/>
-      <c r="AE3" s="136"/>
-      <c r="AF3" s="136"/>
-      <c r="AG3" s="137"/>
+      <c r="AB3" s="72"/>
+      <c r="AC3" s="72"/>
+      <c r="AD3" s="72"/>
+      <c r="AE3" s="72"/>
+      <c r="AF3" s="72"/>
+      <c r="AG3" s="73"/>
       <c r="AH3" s="16"/>
       <c r="AI3" s="17"/>
       <c r="AJ3" s="18"/>
@@ -2125,14 +2103,12 @@
     </row>
     <row r="4" spans="1:116" ht="28" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="59"/>
       <c r="C4" s="54"/>
       <c r="D4" s="55"/>
-      <c r="E4" s="65" t="s">
-        <v>7</v>
-      </c>
+      <c r="E4" s="65"/>
       <c r="F4" s="56"/>
       <c r="G4" s="56"/>
       <c r="H4" s="56"/>
@@ -2151,157 +2127,147 @@
       <c r="U4" s="58"/>
       <c r="V4" s="58"/>
       <c r="W4" s="58"/>
-      <c r="X4" s="161"/>
-      <c r="Y4" s="161"/>
-      <c r="Z4" s="161"/>
-      <c r="AA4" s="162"/>
-      <c r="AB4" s="163"/>
-      <c r="AC4" s="163"/>
-      <c r="AD4" s="163"/>
-      <c r="AE4" s="163"/>
-      <c r="AF4" s="140"/>
-      <c r="AG4" s="141"/>
+      <c r="X4" s="74"/>
+      <c r="Y4" s="74"/>
+      <c r="Z4" s="74"/>
+      <c r="AA4" s="75"/>
+      <c r="AB4" s="76"/>
+      <c r="AC4" s="76"/>
+      <c r="AD4" s="76"/>
+      <c r="AE4" s="76"/>
+      <c r="AF4" s="77"/>
+      <c r="AG4" s="78"/>
       <c r="AH4" s="26"/>
     </row>
     <row r="5" spans="1:116" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="150" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="151"/>
+      <c r="C5" s="151"/>
+      <c r="D5" s="152"/>
+      <c r="E5" s="158"/>
+      <c r="F5" s="159"/>
+      <c r="G5" s="159"/>
+      <c r="H5" s="160"/>
+      <c r="I5" s="148" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="149"/>
+      <c r="K5" s="161"/>
+      <c r="L5" s="162"/>
+      <c r="M5" s="162"/>
+      <c r="N5" s="163"/>
+      <c r="O5" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="77">
-        <v>6.5</v>
-      </c>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="80" t="s">
+      <c r="P5" s="149"/>
+      <c r="Q5" s="161"/>
+      <c r="R5" s="162"/>
+      <c r="S5" s="162"/>
+      <c r="T5" s="163"/>
+      <c r="U5" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="81"/>
-      <c r="K5" s="82" t="s">
+      <c r="V5" s="111"/>
+      <c r="W5" s="111"/>
+      <c r="X5" s="111"/>
+      <c r="Y5" s="112"/>
+      <c r="Z5" s="112"/>
+      <c r="AA5" s="112"/>
+      <c r="AB5" s="112"/>
+      <c r="AC5" s="112"/>
+      <c r="AD5" s="112"/>
+      <c r="AE5" s="112"/>
+      <c r="AF5" s="112"/>
+      <c r="AG5" s="112"/>
+      <c r="AH5" s="26"/>
+    </row>
+    <row r="6" spans="1:116" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="80" t="s">
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="87"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="87"/>
+      <c r="Q6" s="87"/>
+      <c r="R6" s="87"/>
+      <c r="S6" s="87"/>
+      <c r="T6" s="87"/>
+      <c r="U6" s="87"/>
+      <c r="V6" s="87"/>
+      <c r="W6" s="87"/>
+      <c r="X6" s="87"/>
+      <c r="Y6" s="87"/>
+      <c r="Z6" s="87"/>
+      <c r="AA6" s="87"/>
+      <c r="AB6" s="87"/>
+      <c r="AC6" s="87"/>
+      <c r="AD6" s="87"/>
+      <c r="AE6" s="87"/>
+      <c r="AF6" s="87"/>
+      <c r="AG6" s="88"/>
+      <c r="AH6" s="26"/>
+    </row>
+    <row r="7" spans="1:116" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="83"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="90"/>
+      <c r="N7" s="90"/>
+      <c r="O7" s="90"/>
+      <c r="P7" s="90"/>
+      <c r="Q7" s="90"/>
+      <c r="R7" s="90"/>
+      <c r="S7" s="90"/>
+      <c r="T7" s="90"/>
+      <c r="U7" s="90"/>
+      <c r="V7" s="90"/>
+      <c r="W7" s="90"/>
+      <c r="X7" s="90"/>
+      <c r="Y7" s="90"/>
+      <c r="Z7" s="90"/>
+      <c r="AA7" s="90"/>
+      <c r="AB7" s="90"/>
+      <c r="AC7" s="90"/>
+      <c r="AD7" s="90"/>
+      <c r="AE7" s="90"/>
+      <c r="AF7" s="90"/>
+      <c r="AG7" s="91"/>
+    </row>
+    <row r="8" spans="1:116" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="82" t="s">
-        <v>3</v>
-      </c>
-      <c r="R5" s="83"/>
-      <c r="S5" s="83"/>
-      <c r="T5" s="84"/>
-      <c r="U5" s="154" t="s">
-        <v>12</v>
-      </c>
-      <c r="V5" s="154"/>
-      <c r="W5" s="154"/>
-      <c r="X5" s="154"/>
-      <c r="Y5" s="155" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z5" s="155"/>
-      <c r="AA5" s="155"/>
-      <c r="AB5" s="155"/>
-      <c r="AC5" s="155"/>
-      <c r="AD5" s="155"/>
-      <c r="AE5" s="155"/>
-      <c r="AF5" s="155"/>
-      <c r="AG5" s="155"/>
-      <c r="AH5" s="26"/>
-    </row>
-    <row r="6" spans="1:116" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="142" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="143"/>
-      <c r="C6" s="143"/>
-      <c r="D6" s="144"/>
-      <c r="E6" s="148" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="149"/>
-      <c r="G6" s="149"/>
-      <c r="H6" s="149"/>
-      <c r="I6" s="149"/>
-      <c r="J6" s="149"/>
-      <c r="K6" s="149"/>
-      <c r="L6" s="149"/>
-      <c r="M6" s="149"/>
-      <c r="N6" s="149"/>
-      <c r="O6" s="149"/>
-      <c r="P6" s="149"/>
-      <c r="Q6" s="149"/>
-      <c r="R6" s="149"/>
-      <c r="S6" s="149"/>
-      <c r="T6" s="149"/>
-      <c r="U6" s="149"/>
-      <c r="V6" s="149"/>
-      <c r="W6" s="149"/>
-      <c r="X6" s="149"/>
-      <c r="Y6" s="149"/>
-      <c r="Z6" s="149"/>
-      <c r="AA6" s="149"/>
-      <c r="AB6" s="149"/>
-      <c r="AC6" s="149"/>
-      <c r="AD6" s="149"/>
-      <c r="AE6" s="149"/>
-      <c r="AF6" s="149"/>
-      <c r="AG6" s="150"/>
-      <c r="AH6" s="26"/>
-    </row>
-    <row r="7" spans="1:116" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="145"/>
-      <c r="B7" s="146"/>
-      <c r="C7" s="146"/>
-      <c r="D7" s="147"/>
-      <c r="E7" s="151"/>
-      <c r="F7" s="152"/>
-      <c r="G7" s="152"/>
-      <c r="H7" s="152"/>
-      <c r="I7" s="152"/>
-      <c r="J7" s="152"/>
-      <c r="K7" s="152"/>
-      <c r="L7" s="152"/>
-      <c r="M7" s="152"/>
-      <c r="N7" s="152"/>
-      <c r="O7" s="152"/>
-      <c r="P7" s="152"/>
-      <c r="Q7" s="152"/>
-      <c r="R7" s="152"/>
-      <c r="S7" s="152"/>
-      <c r="T7" s="152"/>
-      <c r="U7" s="152"/>
-      <c r="V7" s="152"/>
-      <c r="W7" s="152"/>
-      <c r="X7" s="152"/>
-      <c r="Y7" s="152"/>
-      <c r="Z7" s="152"/>
-      <c r="AA7" s="152"/>
-      <c r="AB7" s="152"/>
-      <c r="AC7" s="152"/>
-      <c r="AD7" s="152"/>
-      <c r="AE7" s="152"/>
-      <c r="AF7" s="152"/>
-      <c r="AG7" s="153"/>
-    </row>
-    <row r="8" spans="1:116" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="87"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="94"/>
       <c r="J8" s="27"/>
       <c r="K8" s="27"/>
       <c r="L8" s="27"/>
@@ -2338,13 +2304,13 @@
     </row>
     <row r="10" spans="1:116" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
       <c r="D10" s="34"/>
       <c r="E10" s="34" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I10" s="34"/>
       <c r="AG10" s="32"/>
@@ -2355,7 +2321,7 @@
       <c r="C11" s="34"/>
       <c r="D11" s="34"/>
       <c r="E11" s="34" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I11" s="34"/>
       <c r="O11" s="34"/>
@@ -2367,20 +2333,20 @@
       <c r="C12" s="30"/>
       <c r="D12" s="30"/>
       <c r="E12" s="34" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I12" s="30"/>
       <c r="AG12" s="32"/>
     </row>
     <row r="13" spans="1:116" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B13" s="34"/>
       <c r="C13" s="34"/>
       <c r="D13" s="34"/>
       <c r="E13" s="34" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I13" s="34"/>
       <c r="U13" s="35"/>
@@ -2388,13 +2354,13 @@
     </row>
     <row r="14" spans="1:116" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B14" s="34"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
       <c r="E14" s="34" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I14" s="34"/>
       <c r="AG14" s="32"/>
@@ -2436,7 +2402,7 @@
     </row>
     <row r="16" spans="1:116" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="39" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B16" s="40"/>
       <c r="C16" s="40"/>
@@ -2477,102 +2443,91 @@
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
       <c r="P17" s="37" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AG17" s="32"/>
     </row>
     <row r="18" spans="1:116" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29"/>
-      <c r="B18" s="122" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="123"/>
-      <c r="D18" s="123"/>
-      <c r="E18" s="124"/>
-      <c r="F18" s="128" t="s">
+      <c r="B18" s="95" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="101" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="102"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="104" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="93"/>
+      <c r="K18" s="94"/>
+      <c r="L18" s="104">
+        <v>7</v>
+      </c>
+      <c r="M18" s="93"/>
+      <c r="N18" s="94"/>
+      <c r="O18" s="104">
+        <v>14</v>
+      </c>
+      <c r="P18" s="93"/>
+      <c r="Q18" s="94"/>
+      <c r="R18" s="104">
         <v>28</v>
       </c>
-      <c r="G18" s="129"/>
-      <c r="H18" s="130"/>
-      <c r="I18" s="131" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" s="86"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="131">
-        <v>7</v>
-      </c>
-      <c r="M18" s="86"/>
-      <c r="N18" s="87"/>
-      <c r="O18" s="131">
-        <v>14</v>
-      </c>
-      <c r="P18" s="86"/>
-      <c r="Q18" s="87"/>
-      <c r="R18" s="131">
-        <v>28</v>
-      </c>
-      <c r="S18" s="86"/>
-      <c r="T18" s="87"/>
-      <c r="U18" s="110" t="s">
-        <v>30</v>
-      </c>
-      <c r="V18" s="111"/>
-      <c r="W18" s="112"/>
+      <c r="S18" s="93"/>
+      <c r="T18" s="94"/>
+      <c r="U18" s="105" t="s">
+        <v>25</v>
+      </c>
+      <c r="V18" s="106"/>
+      <c r="W18" s="107"/>
       <c r="AG18" s="32"/>
     </row>
     <row r="19" spans="1:116" ht="35.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29"/>
-      <c r="B19" s="125"/>
-      <c r="C19" s="126"/>
-      <c r="D19" s="126"/>
-      <c r="E19" s="127"/>
-      <c r="F19" s="116" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="117"/>
-      <c r="H19" s="118"/>
-      <c r="I19" s="119">
-        <v>45708</v>
-      </c>
-      <c r="J19" s="120"/>
-      <c r="K19" s="121"/>
-      <c r="L19" s="119">
-        <f>I19+7</f>
-        <v>45715</v>
-      </c>
-      <c r="M19" s="120"/>
-      <c r="N19" s="121"/>
-      <c r="O19" s="119">
-        <f>I19+14</f>
-        <v>45722</v>
-      </c>
-      <c r="P19" s="120"/>
-      <c r="Q19" s="121"/>
-      <c r="R19" s="119">
-        <f>I19+28</f>
-        <v>45736</v>
-      </c>
-      <c r="S19" s="120"/>
-      <c r="T19" s="121"/>
-      <c r="U19" s="113"/>
-      <c r="V19" s="114"/>
-      <c r="W19" s="115"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="124" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="125"/>
+      <c r="H19" s="126"/>
+      <c r="I19" s="127"/>
+      <c r="J19" s="128"/>
+      <c r="K19" s="129"/>
+      <c r="L19" s="127"/>
+      <c r="M19" s="128"/>
+      <c r="N19" s="129"/>
+      <c r="O19" s="127"/>
+      <c r="P19" s="128"/>
+      <c r="Q19" s="129"/>
+      <c r="R19" s="127"/>
+      <c r="S19" s="128"/>
+      <c r="T19" s="129"/>
+      <c r="U19" s="108"/>
+      <c r="V19" s="109"/>
+      <c r="W19" s="110"/>
       <c r="AG19" s="32"/>
     </row>
     <row r="20" spans="1:116" ht="35.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="29"/>
-      <c r="B20" s="105" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="108"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="109"/>
-      <c r="F20" s="104" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" s="97"/>
-      <c r="H20" s="98"/>
+      <c r="B20" s="116" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="117"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="119" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="120"/>
+      <c r="H20" s="121"/>
       <c r="I20" s="60"/>
       <c r="J20" s="61"/>
       <c r="K20" s="62"/>
@@ -2585,24 +2540,24 @@
       <c r="R20" s="60"/>
       <c r="S20" s="61"/>
       <c r="T20" s="62"/>
-      <c r="U20" s="101"/>
-      <c r="V20" s="102"/>
-      <c r="W20" s="103"/>
+      <c r="U20" s="113"/>
+      <c r="V20" s="114"/>
+      <c r="W20" s="115"/>
       <c r="AG20" s="32"/>
     </row>
     <row r="21" spans="1:116" ht="35.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="29"/>
-      <c r="B21" s="105" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="108"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="109"/>
-      <c r="F21" s="104" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" s="97"/>
-      <c r="H21" s="98"/>
+      <c r="B21" s="116" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="117"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="119" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="120"/>
+      <c r="H21" s="121"/>
       <c r="I21" s="60"/>
       <c r="J21" s="61"/>
       <c r="K21" s="62"/>
@@ -2615,9 +2570,9 @@
       <c r="R21" s="60"/>
       <c r="S21" s="61"/>
       <c r="T21" s="62"/>
-      <c r="U21" s="101"/>
-      <c r="V21" s="102"/>
-      <c r="W21" s="103"/>
+      <c r="U21" s="113"/>
+      <c r="V21" s="114"/>
+      <c r="W21" s="115"/>
       <c r="AB21" s="4" t="s">
         <v>1</v>
       </c>
@@ -2625,17 +2580,17 @@
     </row>
     <row r="22" spans="1:116" ht="35.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29"/>
-      <c r="B22" s="105" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="106"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="104" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" s="97"/>
-      <c r="H22" s="98"/>
+      <c r="B22" s="116" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="122"/>
+      <c r="D22" s="122"/>
+      <c r="E22" s="123"/>
+      <c r="F22" s="119" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="120"/>
+      <c r="H22" s="121"/>
       <c r="I22" s="60"/>
       <c r="J22" s="61"/>
       <c r="K22" s="62"/>
@@ -2648,24 +2603,24 @@
       <c r="R22" s="60"/>
       <c r="S22" s="61"/>
       <c r="T22" s="62"/>
-      <c r="U22" s="101"/>
-      <c r="V22" s="102"/>
-      <c r="W22" s="103"/>
+      <c r="U22" s="113"/>
+      <c r="V22" s="114"/>
+      <c r="W22" s="115"/>
       <c r="AG22" s="32"/>
     </row>
     <row r="23" spans="1:116" ht="35.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29"/>
       <c r="B23" s="43" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C23" s="44"/>
       <c r="D23" s="44"/>
       <c r="E23" s="45"/>
-      <c r="F23" s="104" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="97"/>
-      <c r="H23" s="98"/>
+      <c r="F23" s="119" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="120"/>
+      <c r="H23" s="121"/>
       <c r="I23" s="60"/>
       <c r="J23" s="61"/>
       <c r="K23" s="62"/>
@@ -2678,24 +2633,24 @@
       <c r="R23" s="60"/>
       <c r="S23" s="61"/>
       <c r="T23" s="62"/>
-      <c r="U23" s="101"/>
-      <c r="V23" s="102"/>
-      <c r="W23" s="103"/>
+      <c r="U23" s="113"/>
+      <c r="V23" s="114"/>
+      <c r="W23" s="115"/>
       <c r="AG23" s="32"/>
     </row>
     <row r="24" spans="1:116" ht="35.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29"/>
       <c r="B24" s="46" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C24" s="47"/>
       <c r="D24" s="47"/>
       <c r="E24" s="48"/>
-      <c r="F24" s="96" t="s">
-        <v>40</v>
-      </c>
-      <c r="G24" s="97"/>
-      <c r="H24" s="98"/>
+      <c r="F24" s="130" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="120"/>
+      <c r="H24" s="121"/>
       <c r="I24" s="60"/>
       <c r="J24" s="61"/>
       <c r="K24" s="62"/>
@@ -2708,9 +2663,9 @@
       <c r="R24" s="60"/>
       <c r="S24" s="61"/>
       <c r="T24" s="62"/>
-      <c r="U24" s="101"/>
-      <c r="V24" s="102"/>
-      <c r="W24" s="103"/>
+      <c r="U24" s="113"/>
+      <c r="V24" s="114"/>
+      <c r="W24" s="115"/>
       <c r="AG24" s="32"/>
     </row>
     <row r="25" spans="1:116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2728,10 +2683,10 @@
       <c r="L25" s="37"/>
       <c r="M25" s="37"/>
       <c r="N25" s="37" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="O25" s="37" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="P25" s="37"/>
       <c r="Q25" s="37"/>
@@ -2753,13 +2708,13 @@
       <c r="AG25" s="38"/>
     </row>
     <row r="26" spans="1:116" ht="35.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="85" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="86"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="87"/>
+      <c r="A26" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="93"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="94"/>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
@@ -2823,52 +2778,52 @@
       <c r="AG29" s="32"/>
     </row>
     <row r="30" spans="1:116" s="52" customFormat="1" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="88" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="71"/>
-      <c r="C30" s="89"/>
-      <c r="D30" s="90" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="91"/>
-      <c r="F30" s="91"/>
-      <c r="G30" s="91"/>
-      <c r="H30" s="92"/>
-      <c r="I30" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="J30" s="71"/>
-      <c r="K30" s="72"/>
-      <c r="L30" s="93">
+      <c r="A30" s="131" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="132"/>
+      <c r="C30" s="133"/>
+      <c r="D30" s="134" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="135"/>
+      <c r="F30" s="135"/>
+      <c r="G30" s="135"/>
+      <c r="H30" s="136"/>
+      <c r="I30" s="137" t="s">
+        <v>40</v>
+      </c>
+      <c r="J30" s="132"/>
+      <c r="K30" s="138"/>
+      <c r="L30" s="139">
         <f>R19+5</f>
-        <v>45741</v>
-      </c>
-      <c r="M30" s="94"/>
-      <c r="N30" s="94"/>
-      <c r="O30" s="95"/>
-      <c r="P30" s="70" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q30" s="71"/>
-      <c r="R30" s="71"/>
-      <c r="S30" s="72"/>
-      <c r="T30" s="67"/>
-      <c r="U30" s="68"/>
-      <c r="V30" s="68"/>
-      <c r="W30" s="68"/>
-      <c r="X30" s="69"/>
-      <c r="Y30" s="70" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z30" s="71"/>
-      <c r="AA30" s="71"/>
-      <c r="AB30" s="72"/>
-      <c r="AC30" s="67"/>
-      <c r="AD30" s="68"/>
-      <c r="AE30" s="68"/>
-      <c r="AF30" s="68"/>
-      <c r="AG30" s="73"/>
+        <v>5</v>
+      </c>
+      <c r="M30" s="140"/>
+      <c r="N30" s="140"/>
+      <c r="O30" s="141"/>
+      <c r="P30" s="137" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q30" s="132"/>
+      <c r="R30" s="132"/>
+      <c r="S30" s="138"/>
+      <c r="T30" s="142"/>
+      <c r="U30" s="143"/>
+      <c r="V30" s="143"/>
+      <c r="W30" s="143"/>
+      <c r="X30" s="144"/>
+      <c r="Y30" s="137" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z30" s="132"/>
+      <c r="AA30" s="132"/>
+      <c r="AB30" s="138"/>
+      <c r="AC30" s="142"/>
+      <c r="AD30" s="143"/>
+      <c r="AE30" s="143"/>
+      <c r="AF30" s="143"/>
+      <c r="AG30" s="145"/>
     </row>
     <row r="31" spans="1:116" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
@@ -2945,89 +2900,89 @@
       <c r="AE32" s="4"/>
       <c r="AF32" s="4"/>
       <c r="AG32" s="6"/>
-      <c r="AH32" s="159"/>
-      <c r="AI32" s="159"/>
-      <c r="AJ32" s="159"/>
-      <c r="AK32" s="159"/>
-      <c r="AL32" s="159"/>
-      <c r="AM32" s="159"/>
-      <c r="AN32" s="159"/>
-      <c r="AO32" s="159"/>
-      <c r="AP32" s="159"/>
-      <c r="AQ32" s="159"/>
-      <c r="AR32" s="159"/>
-      <c r="AS32" s="159"/>
-      <c r="AT32" s="159"/>
-      <c r="AU32" s="159"/>
-      <c r="AV32" s="159"/>
-      <c r="AW32" s="160"/>
-      <c r="AX32" s="160"/>
-      <c r="AY32" s="160"/>
-      <c r="AZ32" s="160"/>
-      <c r="BA32" s="160"/>
-      <c r="BB32" s="160"/>
-      <c r="BC32" s="160"/>
-      <c r="BD32" s="160"/>
-      <c r="BE32" s="160"/>
-      <c r="BF32" s="160"/>
-      <c r="BG32" s="160"/>
-      <c r="BH32" s="160"/>
-      <c r="BI32" s="159"/>
-      <c r="BJ32" s="159"/>
-      <c r="BK32" s="159"/>
-      <c r="BL32" s="159"/>
-      <c r="BM32" s="159"/>
-      <c r="BN32" s="159"/>
-      <c r="BO32" s="159"/>
-      <c r="BP32" s="159"/>
-      <c r="BQ32" s="159"/>
-      <c r="BR32" s="159"/>
-      <c r="BS32" s="159"/>
-      <c r="BT32" s="159"/>
-      <c r="BU32" s="159"/>
-      <c r="BV32" s="159"/>
-      <c r="BW32" s="159"/>
-      <c r="BX32" s="159"/>
-      <c r="BY32" s="160"/>
-      <c r="BZ32" s="160"/>
-      <c r="CA32" s="160"/>
-      <c r="CB32" s="160"/>
-      <c r="CC32" s="160"/>
-      <c r="CD32" s="160"/>
-      <c r="CE32" s="160"/>
-      <c r="CF32" s="160"/>
-      <c r="CG32" s="160"/>
-      <c r="CH32" s="160"/>
-      <c r="CI32" s="160"/>
-      <c r="CJ32" s="160"/>
-      <c r="CK32" s="159"/>
-      <c r="CL32" s="159"/>
-      <c r="CM32" s="159"/>
-      <c r="CN32" s="159"/>
-      <c r="CO32" s="159"/>
-      <c r="CP32" s="159"/>
-      <c r="CQ32" s="159"/>
-      <c r="CR32" s="159"/>
-      <c r="CS32" s="159"/>
-      <c r="CT32" s="159"/>
-      <c r="CU32" s="159"/>
-      <c r="CV32" s="159"/>
-      <c r="CW32" s="159"/>
-      <c r="CX32" s="159"/>
-      <c r="CY32" s="159"/>
-      <c r="CZ32" s="159"/>
-      <c r="DA32" s="160"/>
-      <c r="DB32" s="160"/>
-      <c r="DC32" s="160"/>
-      <c r="DD32" s="160"/>
-      <c r="DE32" s="160"/>
-      <c r="DF32" s="160"/>
-      <c r="DG32" s="160"/>
-      <c r="DH32" s="160"/>
-      <c r="DI32" s="160"/>
-      <c r="DJ32" s="160"/>
-      <c r="DK32" s="160"/>
-      <c r="DL32" s="160"/>
+      <c r="AH32" s="79"/>
+      <c r="AI32" s="79"/>
+      <c r="AJ32" s="79"/>
+      <c r="AK32" s="79"/>
+      <c r="AL32" s="79"/>
+      <c r="AM32" s="79"/>
+      <c r="AN32" s="79"/>
+      <c r="AO32" s="79"/>
+      <c r="AP32" s="79"/>
+      <c r="AQ32" s="79"/>
+      <c r="AR32" s="79"/>
+      <c r="AS32" s="79"/>
+      <c r="AT32" s="79"/>
+      <c r="AU32" s="79"/>
+      <c r="AV32" s="79"/>
+      <c r="AW32" s="67"/>
+      <c r="AX32" s="67"/>
+      <c r="AY32" s="67"/>
+      <c r="AZ32" s="67"/>
+      <c r="BA32" s="67"/>
+      <c r="BB32" s="67"/>
+      <c r="BC32" s="67"/>
+      <c r="BD32" s="67"/>
+      <c r="BE32" s="67"/>
+      <c r="BF32" s="67"/>
+      <c r="BG32" s="67"/>
+      <c r="BH32" s="67"/>
+      <c r="BI32" s="79"/>
+      <c r="BJ32" s="79"/>
+      <c r="BK32" s="79"/>
+      <c r="BL32" s="79"/>
+      <c r="BM32" s="79"/>
+      <c r="BN32" s="79"/>
+      <c r="BO32" s="79"/>
+      <c r="BP32" s="79"/>
+      <c r="BQ32" s="79"/>
+      <c r="BR32" s="79"/>
+      <c r="BS32" s="79"/>
+      <c r="BT32" s="79"/>
+      <c r="BU32" s="79"/>
+      <c r="BV32" s="79"/>
+      <c r="BW32" s="79"/>
+      <c r="BX32" s="79"/>
+      <c r="BY32" s="67"/>
+      <c r="BZ32" s="67"/>
+      <c r="CA32" s="67"/>
+      <c r="CB32" s="67"/>
+      <c r="CC32" s="67"/>
+      <c r="CD32" s="67"/>
+      <c r="CE32" s="67"/>
+      <c r="CF32" s="67"/>
+      <c r="CG32" s="67"/>
+      <c r="CH32" s="67"/>
+      <c r="CI32" s="67"/>
+      <c r="CJ32" s="67"/>
+      <c r="CK32" s="79"/>
+      <c r="CL32" s="79"/>
+      <c r="CM32" s="79"/>
+      <c r="CN32" s="79"/>
+      <c r="CO32" s="79"/>
+      <c r="CP32" s="79"/>
+      <c r="CQ32" s="79"/>
+      <c r="CR32" s="79"/>
+      <c r="CS32" s="79"/>
+      <c r="CT32" s="79"/>
+      <c r="CU32" s="79"/>
+      <c r="CV32" s="79"/>
+      <c r="CW32" s="79"/>
+      <c r="CX32" s="79"/>
+      <c r="CY32" s="79"/>
+      <c r="CZ32" s="79"/>
+      <c r="DA32" s="67"/>
+      <c r="DB32" s="67"/>
+      <c r="DC32" s="67"/>
+      <c r="DD32" s="67"/>
+      <c r="DE32" s="67"/>
+      <c r="DF32" s="67"/>
+      <c r="DG32" s="67"/>
+      <c r="DH32" s="67"/>
+      <c r="DI32" s="67"/>
+      <c r="DJ32" s="67"/>
+      <c r="DK32" s="67"/>
+      <c r="DL32" s="67"/>
     </row>
     <row r="33" spans="1:116" ht="28" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
@@ -3036,9 +2991,7 @@
       <c r="B33" s="9"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
-      <c r="E33" s="64" t="s">
-        <v>3</v>
-      </c>
+      <c r="E33" s="64"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
@@ -3057,20 +3010,20 @@
       <c r="U33" s="13"/>
       <c r="V33" s="13"/>
       <c r="W33" s="14"/>
-      <c r="X33" s="132" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y33" s="133"/>
-      <c r="Z33" s="134"/>
-      <c r="AA33" s="135" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB33" s="136"/>
-      <c r="AC33" s="136"/>
-      <c r="AD33" s="136"/>
-      <c r="AE33" s="136"/>
-      <c r="AF33" s="136"/>
-      <c r="AG33" s="137"/>
+      <c r="X33" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y33" s="69"/>
+      <c r="Z33" s="70"/>
+      <c r="AA33" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB33" s="72"/>
+      <c r="AC33" s="72"/>
+      <c r="AD33" s="72"/>
+      <c r="AE33" s="72"/>
+      <c r="AF33" s="72"/>
+      <c r="AG33" s="73"/>
       <c r="AH33" s="16"/>
       <c r="AI33" s="17"/>
       <c r="AJ33" s="18"/>
@@ -3157,14 +3110,12 @@
     </row>
     <row r="34" spans="1:116" ht="28" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B34" s="20"/>
       <c r="C34" s="21"/>
       <c r="D34" s="22"/>
-      <c r="E34" s="65" t="s">
-        <v>7</v>
-      </c>
+      <c r="E34" s="65"/>
       <c r="F34" s="56"/>
       <c r="G34" s="23"/>
       <c r="H34" s="23"/>
@@ -3183,157 +3134,147 @@
       <c r="U34" s="25"/>
       <c r="V34" s="25"/>
       <c r="W34" s="25"/>
-      <c r="X34" s="138"/>
-      <c r="Y34" s="138"/>
-      <c r="Z34" s="138"/>
-      <c r="AA34" s="139"/>
-      <c r="AB34" s="140"/>
-      <c r="AC34" s="140"/>
-      <c r="AD34" s="140"/>
-      <c r="AE34" s="140"/>
-      <c r="AF34" s="140"/>
-      <c r="AG34" s="141"/>
+      <c r="X34" s="146"/>
+      <c r="Y34" s="146"/>
+      <c r="Z34" s="146"/>
+      <c r="AA34" s="147"/>
+      <c r="AB34" s="77"/>
+      <c r="AC34" s="77"/>
+      <c r="AD34" s="77"/>
+      <c r="AE34" s="77"/>
+      <c r="AF34" s="77"/>
+      <c r="AG34" s="78"/>
       <c r="AH34" s="26"/>
     </row>
     <row r="35" spans="1:116" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="74" t="s">
+      <c r="A35" s="150" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="151"/>
+      <c r="C35" s="151"/>
+      <c r="D35" s="152"/>
+      <c r="E35" s="153"/>
+      <c r="F35" s="154"/>
+      <c r="G35" s="154"/>
+      <c r="H35" s="155"/>
+      <c r="I35" s="148" t="s">
+        <v>7</v>
+      </c>
+      <c r="J35" s="149"/>
+      <c r="K35" s="148"/>
+      <c r="L35" s="77"/>
+      <c r="M35" s="77"/>
+      <c r="N35" s="149"/>
+      <c r="O35" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="75"/>
-      <c r="C35" s="75"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="156">
-        <v>6.5</v>
-      </c>
-      <c r="F35" s="157"/>
-      <c r="G35" s="157"/>
-      <c r="H35" s="158"/>
-      <c r="I35" s="80" t="s">
+      <c r="P35" s="149"/>
+      <c r="Q35" s="148"/>
+      <c r="R35" s="77"/>
+      <c r="S35" s="77"/>
+      <c r="T35" s="149"/>
+      <c r="U35" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="J35" s="81"/>
-      <c r="K35" s="80" t="s">
+      <c r="V35" s="111"/>
+      <c r="W35" s="111"/>
+      <c r="X35" s="111"/>
+      <c r="Y35" s="112"/>
+      <c r="Z35" s="112"/>
+      <c r="AA35" s="112"/>
+      <c r="AB35" s="112"/>
+      <c r="AC35" s="112"/>
+      <c r="AD35" s="112"/>
+      <c r="AE35" s="112"/>
+      <c r="AF35" s="112"/>
+      <c r="AG35" s="112"/>
+      <c r="AH35" s="26"/>
+    </row>
+    <row r="36" spans="1:116" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="L35" s="140"/>
-      <c r="M35" s="140"/>
-      <c r="N35" s="81"/>
-      <c r="O35" s="80" t="s">
+      <c r="B36" s="81"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="86"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="87"/>
+      <c r="H36" s="87"/>
+      <c r="I36" s="87"/>
+      <c r="J36" s="87"/>
+      <c r="K36" s="87"/>
+      <c r="L36" s="87"/>
+      <c r="M36" s="87"/>
+      <c r="N36" s="87"/>
+      <c r="O36" s="87"/>
+      <c r="P36" s="87"/>
+      <c r="Q36" s="87"/>
+      <c r="R36" s="87"/>
+      <c r="S36" s="87"/>
+      <c r="T36" s="87"/>
+      <c r="U36" s="87"/>
+      <c r="V36" s="87"/>
+      <c r="W36" s="87"/>
+      <c r="X36" s="87"/>
+      <c r="Y36" s="87"/>
+      <c r="Z36" s="87"/>
+      <c r="AA36" s="87"/>
+      <c r="AB36" s="87"/>
+      <c r="AC36" s="87"/>
+      <c r="AD36" s="87"/>
+      <c r="AE36" s="87"/>
+      <c r="AF36" s="87"/>
+      <c r="AG36" s="88"/>
+      <c r="AH36" s="26"/>
+    </row>
+    <row r="37" spans="1:116" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="83"/>
+      <c r="B37" s="84"/>
+      <c r="C37" s="84"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="89"/>
+      <c r="F37" s="90"/>
+      <c r="G37" s="90"/>
+      <c r="H37" s="90"/>
+      <c r="I37" s="90"/>
+      <c r="J37" s="90"/>
+      <c r="K37" s="90"/>
+      <c r="L37" s="90"/>
+      <c r="M37" s="90"/>
+      <c r="N37" s="90"/>
+      <c r="O37" s="90"/>
+      <c r="P37" s="90"/>
+      <c r="Q37" s="90"/>
+      <c r="R37" s="90"/>
+      <c r="S37" s="90"/>
+      <c r="T37" s="90"/>
+      <c r="U37" s="90"/>
+      <c r="V37" s="90"/>
+      <c r="W37" s="90"/>
+      <c r="X37" s="90"/>
+      <c r="Y37" s="90"/>
+      <c r="Z37" s="90"/>
+      <c r="AA37" s="90"/>
+      <c r="AB37" s="90"/>
+      <c r="AC37" s="90"/>
+      <c r="AD37" s="90"/>
+      <c r="AE37" s="90"/>
+      <c r="AF37" s="90"/>
+      <c r="AG37" s="91"/>
+    </row>
+    <row r="38" spans="1:116" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="P35" s="81"/>
-      <c r="Q35" s="80" t="s">
-        <v>3</v>
-      </c>
-      <c r="R35" s="140"/>
-      <c r="S35" s="140"/>
-      <c r="T35" s="81"/>
-      <c r="U35" s="154" t="s">
-        <v>12</v>
-      </c>
-      <c r="V35" s="154"/>
-      <c r="W35" s="154"/>
-      <c r="X35" s="154"/>
-      <c r="Y35" s="155" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z35" s="155"/>
-      <c r="AA35" s="155"/>
-      <c r="AB35" s="155"/>
-      <c r="AC35" s="155"/>
-      <c r="AD35" s="155"/>
-      <c r="AE35" s="155"/>
-      <c r="AF35" s="155"/>
-      <c r="AG35" s="155"/>
-      <c r="AH35" s="26"/>
-    </row>
-    <row r="36" spans="1:116" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="142" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" s="143"/>
-      <c r="C36" s="143"/>
-      <c r="D36" s="144"/>
-      <c r="E36" s="148" t="s">
-        <v>15</v>
-      </c>
-      <c r="F36" s="149"/>
-      <c r="G36" s="149"/>
-      <c r="H36" s="149"/>
-      <c r="I36" s="149"/>
-      <c r="J36" s="149"/>
-      <c r="K36" s="149"/>
-      <c r="L36" s="149"/>
-      <c r="M36" s="149"/>
-      <c r="N36" s="149"/>
-      <c r="O36" s="149"/>
-      <c r="P36" s="149"/>
-      <c r="Q36" s="149"/>
-      <c r="R36" s="149"/>
-      <c r="S36" s="149"/>
-      <c r="T36" s="149"/>
-      <c r="U36" s="149"/>
-      <c r="V36" s="149"/>
-      <c r="W36" s="149"/>
-      <c r="X36" s="149"/>
-      <c r="Y36" s="149"/>
-      <c r="Z36" s="149"/>
-      <c r="AA36" s="149"/>
-      <c r="AB36" s="149"/>
-      <c r="AC36" s="149"/>
-      <c r="AD36" s="149"/>
-      <c r="AE36" s="149"/>
-      <c r="AF36" s="149"/>
-      <c r="AG36" s="150"/>
-      <c r="AH36" s="26"/>
-    </row>
-    <row r="37" spans="1:116" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="145"/>
-      <c r="B37" s="146"/>
-      <c r="C37" s="146"/>
-      <c r="D37" s="147"/>
-      <c r="E37" s="151"/>
-      <c r="F37" s="152"/>
-      <c r="G37" s="152"/>
-      <c r="H37" s="152"/>
-      <c r="I37" s="152"/>
-      <c r="J37" s="152"/>
-      <c r="K37" s="152"/>
-      <c r="L37" s="152"/>
-      <c r="M37" s="152"/>
-      <c r="N37" s="152"/>
-      <c r="O37" s="152"/>
-      <c r="P37" s="152"/>
-      <c r="Q37" s="152"/>
-      <c r="R37" s="152"/>
-      <c r="S37" s="152"/>
-      <c r="T37" s="152"/>
-      <c r="U37" s="152"/>
-      <c r="V37" s="152"/>
-      <c r="W37" s="152"/>
-      <c r="X37" s="152"/>
-      <c r="Y37" s="152"/>
-      <c r="Z37" s="152"/>
-      <c r="AA37" s="152"/>
-      <c r="AB37" s="152"/>
-      <c r="AC37" s="152"/>
-      <c r="AD37" s="152"/>
-      <c r="AE37" s="152"/>
-      <c r="AF37" s="152"/>
-      <c r="AG37" s="153"/>
-    </row>
-    <row r="38" spans="1:116" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" s="86"/>
-      <c r="C38" s="86"/>
-      <c r="D38" s="86"/>
-      <c r="E38" s="86"/>
-      <c r="F38" s="86"/>
-      <c r="G38" s="86"/>
-      <c r="H38" s="86"/>
-      <c r="I38" s="87"/>
+      <c r="B38" s="93"/>
+      <c r="C38" s="93"/>
+      <c r="D38" s="93"/>
+      <c r="E38" s="93"/>
+      <c r="F38" s="93"/>
+      <c r="G38" s="93"/>
+      <c r="H38" s="93"/>
+      <c r="I38" s="94"/>
       <c r="J38" s="27"/>
       <c r="K38" s="27"/>
       <c r="L38" s="27"/>
@@ -3370,13 +3311,13 @@
     </row>
     <row r="40" spans="1:116" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="33" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B40" s="34"/>
       <c r="C40" s="34"/>
       <c r="D40" s="34"/>
       <c r="E40" s="34" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I40" s="34"/>
       <c r="AG40" s="32"/>
@@ -3387,7 +3328,7 @@
       <c r="C41" s="34"/>
       <c r="D41" s="34"/>
       <c r="E41" s="34" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I41" s="34"/>
       <c r="O41" s="34"/>
@@ -3399,20 +3340,20 @@
       <c r="C42" s="30"/>
       <c r="D42" s="30"/>
       <c r="E42" s="34" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I42" s="30"/>
       <c r="AG42" s="32"/>
     </row>
     <row r="43" spans="1:116" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="33" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B43" s="34"/>
       <c r="C43" s="34"/>
       <c r="D43" s="34"/>
       <c r="E43" s="34" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I43" s="34"/>
       <c r="U43" s="35"/>
@@ -3420,13 +3361,13 @@
     </row>
     <row r="44" spans="1:116" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="33" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B44" s="34"/>
       <c r="C44" s="34"/>
       <c r="D44" s="34"/>
       <c r="E44" s="34" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I44" s="34"/>
       <c r="AG44" s="32"/>
@@ -3468,7 +3409,7 @@
     </row>
     <row r="46" spans="1:116" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="39" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B46" s="40"/>
       <c r="C46" s="40"/>
@@ -3509,153 +3450,142 @@
       <c r="C47" s="31"/>
       <c r="D47" s="31"/>
       <c r="P47" s="37" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AG47" s="32"/>
     </row>
     <row r="48" spans="1:116" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="29"/>
-      <c r="B48" s="122" t="s">
-        <v>27</v>
-      </c>
-      <c r="C48" s="123"/>
-      <c r="D48" s="123"/>
-      <c r="E48" s="124"/>
-      <c r="F48" s="128" t="s">
+      <c r="B48" s="95" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="96"/>
+      <c r="D48" s="96"/>
+      <c r="E48" s="97"/>
+      <c r="F48" s="101" t="s">
+        <v>23</v>
+      </c>
+      <c r="G48" s="102"/>
+      <c r="H48" s="103"/>
+      <c r="I48" s="104" t="s">
+        <v>24</v>
+      </c>
+      <c r="J48" s="93"/>
+      <c r="K48" s="94"/>
+      <c r="L48" s="104">
+        <v>7</v>
+      </c>
+      <c r="M48" s="93"/>
+      <c r="N48" s="94"/>
+      <c r="O48" s="104">
+        <v>14</v>
+      </c>
+      <c r="P48" s="93"/>
+      <c r="Q48" s="94"/>
+      <c r="R48" s="104">
         <v>28</v>
       </c>
-      <c r="G48" s="129"/>
-      <c r="H48" s="130"/>
-      <c r="I48" s="131" t="s">
-        <v>29</v>
-      </c>
-      <c r="J48" s="86"/>
-      <c r="K48" s="87"/>
-      <c r="L48" s="131">
-        <v>7</v>
-      </c>
-      <c r="M48" s="86"/>
-      <c r="N48" s="87"/>
-      <c r="O48" s="131">
-        <v>14</v>
-      </c>
-      <c r="P48" s="86"/>
-      <c r="Q48" s="87"/>
-      <c r="R48" s="131">
-        <v>28</v>
-      </c>
-      <c r="S48" s="86"/>
-      <c r="T48" s="87"/>
-      <c r="U48" s="110" t="s">
-        <v>30</v>
-      </c>
-      <c r="V48" s="111"/>
-      <c r="W48" s="112"/>
+      <c r="S48" s="93"/>
+      <c r="T48" s="94"/>
+      <c r="U48" s="105" t="s">
+        <v>25</v>
+      </c>
+      <c r="V48" s="106"/>
+      <c r="W48" s="107"/>
       <c r="AG48" s="32"/>
     </row>
     <row r="49" spans="1:33" ht="35.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="29"/>
-      <c r="B49" s="125"/>
-      <c r="C49" s="126"/>
-      <c r="D49" s="126"/>
-      <c r="E49" s="127"/>
-      <c r="F49" s="116" t="s">
-        <v>31</v>
-      </c>
-      <c r="G49" s="117"/>
-      <c r="H49" s="118"/>
-      <c r="I49" s="119">
-        <v>45708</v>
-      </c>
-      <c r="J49" s="120"/>
-      <c r="K49" s="121"/>
-      <c r="L49" s="119">
-        <f>I49+7</f>
-        <v>45715</v>
-      </c>
-      <c r="M49" s="120"/>
-      <c r="N49" s="121"/>
-      <c r="O49" s="119">
-        <f>I49+14</f>
-        <v>45722</v>
-      </c>
-      <c r="P49" s="120"/>
-      <c r="Q49" s="121"/>
-      <c r="R49" s="119">
-        <f>I49+28</f>
-        <v>45736</v>
-      </c>
-      <c r="S49" s="120"/>
-      <c r="T49" s="121"/>
-      <c r="U49" s="113"/>
-      <c r="V49" s="114"/>
-      <c r="W49" s="115"/>
+      <c r="B49" s="98"/>
+      <c r="C49" s="99"/>
+      <c r="D49" s="99"/>
+      <c r="E49" s="100"/>
+      <c r="F49" s="124" t="s">
+        <v>26</v>
+      </c>
+      <c r="G49" s="125"/>
+      <c r="H49" s="126"/>
+      <c r="I49" s="127"/>
+      <c r="J49" s="128"/>
+      <c r="K49" s="129"/>
+      <c r="L49" s="127"/>
+      <c r="M49" s="128"/>
+      <c r="N49" s="129"/>
+      <c r="O49" s="127"/>
+      <c r="P49" s="128"/>
+      <c r="Q49" s="129"/>
+      <c r="R49" s="127"/>
+      <c r="S49" s="128"/>
+      <c r="T49" s="129"/>
+      <c r="U49" s="108"/>
+      <c r="V49" s="109"/>
+      <c r="W49" s="110"/>
       <c r="AG49" s="32"/>
     </row>
     <row r="50" spans="1:33" ht="35.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="29"/>
-      <c r="B50" s="105" t="s">
-        <v>32</v>
-      </c>
-      <c r="C50" s="108"/>
-      <c r="D50" s="108"/>
-      <c r="E50" s="109"/>
-      <c r="F50" s="104" t="s">
-        <v>33</v>
-      </c>
-      <c r="G50" s="97"/>
-      <c r="H50" s="98"/>
+      <c r="B50" s="116" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="117"/>
+      <c r="D50" s="117"/>
+      <c r="E50" s="118"/>
+      <c r="F50" s="119" t="s">
+        <v>28</v>
+      </c>
+      <c r="G50" s="120"/>
+      <c r="H50" s="121"/>
       <c r="I50" s="66"/>
-      <c r="J50" s="99"/>
-      <c r="K50" s="100"/>
+      <c r="J50" s="156"/>
+      <c r="K50" s="157"/>
       <c r="L50" s="63"/>
-      <c r="M50" s="99"/>
-      <c r="N50" s="100"/>
+      <c r="M50" s="156"/>
+      <c r="N50" s="157"/>
       <c r="O50" s="63"/>
-      <c r="P50" s="99"/>
-      <c r="Q50" s="100"/>
+      <c r="P50" s="156"/>
+      <c r="Q50" s="157"/>
       <c r="R50" s="63"/>
-      <c r="S50" s="99"/>
-      <c r="T50" s="100"/>
-      <c r="U50" s="101">
+      <c r="S50" s="156"/>
+      <c r="T50" s="157"/>
+      <c r="U50" s="113">
         <f>U20</f>
         <v>0</v>
       </c>
-      <c r="V50" s="102"/>
-      <c r="W50" s="103"/>
+      <c r="V50" s="114"/>
+      <c r="W50" s="115"/>
       <c r="AG50" s="32"/>
     </row>
     <row r="51" spans="1:33" ht="35.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="29"/>
-      <c r="B51" s="105" t="s">
-        <v>35</v>
-      </c>
-      <c r="C51" s="108"/>
-      <c r="D51" s="108"/>
-      <c r="E51" s="109"/>
-      <c r="F51" s="104" t="s">
-        <v>33</v>
-      </c>
-      <c r="G51" s="97"/>
-      <c r="H51" s="98"/>
+      <c r="B51" s="116" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51" s="117"/>
+      <c r="D51" s="117"/>
+      <c r="E51" s="118"/>
+      <c r="F51" s="119" t="s">
+        <v>28</v>
+      </c>
+      <c r="G51" s="120"/>
+      <c r="H51" s="121"/>
       <c r="I51" s="66"/>
-      <c r="J51" s="99"/>
-      <c r="K51" s="100"/>
+      <c r="J51" s="156"/>
+      <c r="K51" s="157"/>
       <c r="L51" s="63"/>
-      <c r="M51" s="99"/>
-      <c r="N51" s="100"/>
+      <c r="M51" s="156"/>
+      <c r="N51" s="157"/>
       <c r="O51" s="63"/>
-      <c r="P51" s="99"/>
-      <c r="Q51" s="100"/>
+      <c r="P51" s="156"/>
+      <c r="Q51" s="157"/>
       <c r="R51" s="63"/>
-      <c r="S51" s="99"/>
-      <c r="T51" s="100"/>
-      <c r="U51" s="101">
+      <c r="S51" s="156"/>
+      <c r="T51" s="157"/>
+      <c r="U51" s="113">
         <f>U21</f>
         <v>0</v>
       </c>
-      <c r="V51" s="102"/>
-      <c r="W51" s="103"/>
+      <c r="V51" s="114"/>
+      <c r="W51" s="115"/>
       <c r="AB51" s="4" t="s">
         <v>1</v>
       </c>
@@ -3663,101 +3593,101 @@
     </row>
     <row r="52" spans="1:33" ht="35.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="29"/>
-      <c r="B52" s="105" t="s">
-        <v>36</v>
-      </c>
-      <c r="C52" s="106"/>
-      <c r="D52" s="106"/>
-      <c r="E52" s="107"/>
-      <c r="F52" s="104" t="s">
-        <v>33</v>
-      </c>
-      <c r="G52" s="97"/>
-      <c r="H52" s="98"/>
+      <c r="B52" s="116" t="s">
+        <v>31</v>
+      </c>
+      <c r="C52" s="122"/>
+      <c r="D52" s="122"/>
+      <c r="E52" s="123"/>
+      <c r="F52" s="119" t="s">
+        <v>28</v>
+      </c>
+      <c r="G52" s="120"/>
+      <c r="H52" s="121"/>
       <c r="I52" s="66"/>
-      <c r="J52" s="99"/>
-      <c r="K52" s="100"/>
+      <c r="J52" s="156"/>
+      <c r="K52" s="157"/>
       <c r="L52" s="63"/>
-      <c r="M52" s="99"/>
-      <c r="N52" s="100"/>
+      <c r="M52" s="156"/>
+      <c r="N52" s="157"/>
       <c r="O52" s="63"/>
-      <c r="P52" s="99"/>
-      <c r="Q52" s="100"/>
+      <c r="P52" s="156"/>
+      <c r="Q52" s="157"/>
       <c r="R52" s="63"/>
-      <c r="S52" s="99"/>
-      <c r="T52" s="100"/>
-      <c r="U52" s="101">
+      <c r="S52" s="156"/>
+      <c r="T52" s="157"/>
+      <c r="U52" s="113">
         <f>U22</f>
         <v>0</v>
       </c>
-      <c r="V52" s="102"/>
-      <c r="W52" s="103"/>
+      <c r="V52" s="114"/>
+      <c r="W52" s="115"/>
       <c r="AG52" s="32"/>
     </row>
     <row r="53" spans="1:33" ht="35.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="29"/>
       <c r="B53" s="43" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C53" s="44"/>
       <c r="D53" s="44"/>
       <c r="E53" s="45"/>
-      <c r="F53" s="104" t="s">
-        <v>38</v>
-      </c>
-      <c r="G53" s="97"/>
-      <c r="H53" s="98"/>
+      <c r="F53" s="119" t="s">
+        <v>33</v>
+      </c>
+      <c r="G53" s="120"/>
+      <c r="H53" s="121"/>
       <c r="I53" s="66"/>
-      <c r="J53" s="99"/>
-      <c r="K53" s="100"/>
+      <c r="J53" s="156"/>
+      <c r="K53" s="157"/>
       <c r="L53" s="63"/>
-      <c r="M53" s="99"/>
-      <c r="N53" s="100"/>
+      <c r="M53" s="156"/>
+      <c r="N53" s="157"/>
       <c r="O53" s="63"/>
-      <c r="P53" s="99"/>
-      <c r="Q53" s="100"/>
+      <c r="P53" s="156"/>
+      <c r="Q53" s="157"/>
       <c r="R53" s="63"/>
-      <c r="S53" s="99"/>
-      <c r="T53" s="100"/>
-      <c r="U53" s="101">
+      <c r="S53" s="156"/>
+      <c r="T53" s="157"/>
+      <c r="U53" s="113">
         <f>U23</f>
         <v>0</v>
       </c>
-      <c r="V53" s="102"/>
-      <c r="W53" s="103"/>
+      <c r="V53" s="114"/>
+      <c r="W53" s="115"/>
       <c r="AG53" s="32"/>
     </row>
     <row r="54" spans="1:33" ht="35.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="29"/>
       <c r="B54" s="46" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C54" s="47"/>
       <c r="D54" s="47"/>
       <c r="E54" s="48"/>
-      <c r="F54" s="96" t="s">
-        <v>40</v>
-      </c>
-      <c r="G54" s="97"/>
-      <c r="H54" s="98"/>
+      <c r="F54" s="130" t="s">
+        <v>35</v>
+      </c>
+      <c r="G54" s="120"/>
+      <c r="H54" s="121"/>
       <c r="I54" s="66"/>
-      <c r="J54" s="99"/>
-      <c r="K54" s="100"/>
+      <c r="J54" s="156"/>
+      <c r="K54" s="157"/>
       <c r="L54" s="63"/>
-      <c r="M54" s="99"/>
-      <c r="N54" s="100"/>
+      <c r="M54" s="156"/>
+      <c r="N54" s="157"/>
       <c r="O54" s="63"/>
-      <c r="P54" s="99"/>
-      <c r="Q54" s="100"/>
+      <c r="P54" s="156"/>
+      <c r="Q54" s="157"/>
       <c r="R54" s="63"/>
-      <c r="S54" s="99"/>
-      <c r="T54" s="100"/>
-      <c r="U54" s="101">
+      <c r="S54" s="156"/>
+      <c r="T54" s="157"/>
+      <c r="U54" s="113">
         <f>U24</f>
         <v>0</v>
       </c>
-      <c r="V54" s="102"/>
-      <c r="W54" s="103"/>
+      <c r="V54" s="114"/>
+      <c r="W54" s="115"/>
       <c r="AG54" s="32"/>
     </row>
     <row r="55" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3775,10 +3705,10 @@
       <c r="L55" s="37"/>
       <c r="M55" s="37"/>
       <c r="N55" s="37" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="O55" s="37" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="P55" s="37"/>
       <c r="Q55" s="37"/>
@@ -3800,13 +3730,13 @@
       <c r="AG55" s="38"/>
     </row>
     <row r="56" spans="1:33" ht="35.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="85" t="s">
-        <v>43</v>
-      </c>
-      <c r="B56" s="86"/>
-      <c r="C56" s="86"/>
-      <c r="D56" s="86"/>
-      <c r="E56" s="87"/>
+      <c r="A56" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="B56" s="93"/>
+      <c r="C56" s="93"/>
+      <c r="D56" s="93"/>
+      <c r="E56" s="94"/>
       <c r="F56" s="27"/>
       <c r="G56" s="27"/>
       <c r="H56" s="27"/>
@@ -3870,56 +3800,192 @@
       <c r="AG59" s="32"/>
     </row>
     <row r="60" spans="1:33" s="52" customFormat="1" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="88" t="s">
-        <v>44</v>
-      </c>
-      <c r="B60" s="71"/>
-      <c r="C60" s="89"/>
-      <c r="D60" s="90" t="str">
+      <c r="A60" s="131" t="s">
+        <v>39</v>
+      </c>
+      <c r="B60" s="132"/>
+      <c r="C60" s="133"/>
+      <c r="D60" s="134" t="str">
         <f>D30</f>
         <v>적합</v>
       </c>
-      <c r="E60" s="91"/>
-      <c r="F60" s="91"/>
-      <c r="G60" s="91"/>
-      <c r="H60" s="92"/>
-      <c r="I60" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="J60" s="71"/>
-      <c r="K60" s="72"/>
-      <c r="L60" s="93">
+      <c r="E60" s="135"/>
+      <c r="F60" s="135"/>
+      <c r="G60" s="135"/>
+      <c r="H60" s="136"/>
+      <c r="I60" s="137" t="s">
+        <v>40</v>
+      </c>
+      <c r="J60" s="132"/>
+      <c r="K60" s="138"/>
+      <c r="L60" s="139">
         <f>R49+5</f>
-        <v>45741</v>
-      </c>
-      <c r="M60" s="94"/>
-      <c r="N60" s="94"/>
-      <c r="O60" s="95"/>
-      <c r="P60" s="70" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q60" s="71"/>
-      <c r="R60" s="71"/>
-      <c r="S60" s="72"/>
-      <c r="T60" s="67"/>
-      <c r="U60" s="68"/>
-      <c r="V60" s="68"/>
-      <c r="W60" s="68"/>
-      <c r="X60" s="69"/>
-      <c r="Y60" s="70" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z60" s="71"/>
-      <c r="AA60" s="71"/>
-      <c r="AB60" s="72"/>
-      <c r="AC60" s="67"/>
-      <c r="AD60" s="68"/>
-      <c r="AE60" s="68"/>
-      <c r="AF60" s="68"/>
-      <c r="AG60" s="73"/>
+        <v>5</v>
+      </c>
+      <c r="M60" s="140"/>
+      <c r="N60" s="140"/>
+      <c r="O60" s="141"/>
+      <c r="P60" s="137" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q60" s="132"/>
+      <c r="R60" s="132"/>
+      <c r="S60" s="138"/>
+      <c r="T60" s="142"/>
+      <c r="U60" s="143"/>
+      <c r="V60" s="143"/>
+      <c r="W60" s="143"/>
+      <c r="X60" s="144"/>
+      <c r="Y60" s="137" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z60" s="132"/>
+      <c r="AA60" s="132"/>
+      <c r="AB60" s="138"/>
+      <c r="AC60" s="142"/>
+      <c r="AD60" s="143"/>
+      <c r="AE60" s="143"/>
+      <c r="AF60" s="143"/>
+      <c r="AG60" s="145"/>
     </row>
   </sheetData>
   <mergeCells count="160">
+    <mergeCell ref="T60:X60"/>
+    <mergeCell ref="Y60:AB60"/>
+    <mergeCell ref="AC60:AG60"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="D60:H60"/>
+    <mergeCell ref="I60:K60"/>
+    <mergeCell ref="L60:O60"/>
+    <mergeCell ref="P60:S60"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="S54:T54"/>
+    <mergeCell ref="U54:W54"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="S53:T53"/>
+    <mergeCell ref="U53:W53"/>
+    <mergeCell ref="U51:W51"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="U52:W52"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="S50:T50"/>
+    <mergeCell ref="U50:W50"/>
+    <mergeCell ref="U48:W49"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="L49:N49"/>
+    <mergeCell ref="O49:Q49"/>
+    <mergeCell ref="R49:T49"/>
+    <mergeCell ref="A38:I38"/>
+    <mergeCell ref="B48:E49"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="L48:N48"/>
+    <mergeCell ref="O48:Q48"/>
+    <mergeCell ref="R48:T48"/>
+    <mergeCell ref="X33:Z33"/>
+    <mergeCell ref="AA33:AG33"/>
+    <mergeCell ref="X34:Z34"/>
+    <mergeCell ref="AA34:AG34"/>
+    <mergeCell ref="A36:D37"/>
+    <mergeCell ref="E36:AG37"/>
+    <mergeCell ref="Q35:T35"/>
+    <mergeCell ref="U35:X35"/>
+    <mergeCell ref="Y35:AG35"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="CO32:CR32"/>
+    <mergeCell ref="CS32:CV32"/>
+    <mergeCell ref="CW32:CZ32"/>
+    <mergeCell ref="DA32:DD32"/>
+    <mergeCell ref="DE32:DH32"/>
+    <mergeCell ref="DI32:DL32"/>
+    <mergeCell ref="BQ32:BT32"/>
+    <mergeCell ref="BU32:BX32"/>
+    <mergeCell ref="BY32:CB32"/>
+    <mergeCell ref="CC32:CF32"/>
+    <mergeCell ref="CG32:CJ32"/>
+    <mergeCell ref="CK32:CN32"/>
+    <mergeCell ref="AS32:AV32"/>
+    <mergeCell ref="AW32:AZ32"/>
+    <mergeCell ref="BA32:BD32"/>
+    <mergeCell ref="BE32:BH32"/>
+    <mergeCell ref="BI32:BL32"/>
+    <mergeCell ref="BM32:BP32"/>
+    <mergeCell ref="T30:X30"/>
+    <mergeCell ref="Y30:AB30"/>
+    <mergeCell ref="AC30:AG30"/>
+    <mergeCell ref="AH32:AJ32"/>
+    <mergeCell ref="AK32:AN32"/>
+    <mergeCell ref="AO32:AR32"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="U23:W23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="U24:W24"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="P30:S30"/>
+    <mergeCell ref="U20:W20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="U21:W21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="U22:W22"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="AW2:AZ2"/>
+    <mergeCell ref="A6:D7"/>
+    <mergeCell ref="E6:AG7"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="B18:E19"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="U18:W19"/>
+    <mergeCell ref="U5:X5"/>
+    <mergeCell ref="Y5:AG5"/>
     <mergeCell ref="BA2:BD2"/>
     <mergeCell ref="DA2:DD2"/>
     <mergeCell ref="DE2:DH2"/>
@@ -3944,142 +4010,6 @@
     <mergeCell ref="AK2:AN2"/>
     <mergeCell ref="AO2:AR2"/>
     <mergeCell ref="AS2:AV2"/>
-    <mergeCell ref="AW2:AZ2"/>
-    <mergeCell ref="A6:D7"/>
-    <mergeCell ref="E6:AG7"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="B18:E19"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="U18:W19"/>
-    <mergeCell ref="U5:X5"/>
-    <mergeCell ref="Y5:AG5"/>
-    <mergeCell ref="U20:W20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="U21:W21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="U22:W22"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="U23:W23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="U24:W24"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="P30:S30"/>
-    <mergeCell ref="AS32:AV32"/>
-    <mergeCell ref="AW32:AZ32"/>
-    <mergeCell ref="BA32:BD32"/>
-    <mergeCell ref="BE32:BH32"/>
-    <mergeCell ref="BI32:BL32"/>
-    <mergeCell ref="BM32:BP32"/>
-    <mergeCell ref="T30:X30"/>
-    <mergeCell ref="Y30:AB30"/>
-    <mergeCell ref="AC30:AG30"/>
-    <mergeCell ref="AH32:AJ32"/>
-    <mergeCell ref="AK32:AN32"/>
-    <mergeCell ref="AO32:AR32"/>
-    <mergeCell ref="CO32:CR32"/>
-    <mergeCell ref="CS32:CV32"/>
-    <mergeCell ref="CW32:CZ32"/>
-    <mergeCell ref="DA32:DD32"/>
-    <mergeCell ref="DE32:DH32"/>
-    <mergeCell ref="DI32:DL32"/>
-    <mergeCell ref="BQ32:BT32"/>
-    <mergeCell ref="BU32:BX32"/>
-    <mergeCell ref="BY32:CB32"/>
-    <mergeCell ref="CC32:CF32"/>
-    <mergeCell ref="CG32:CJ32"/>
-    <mergeCell ref="CK32:CN32"/>
-    <mergeCell ref="A38:I38"/>
-    <mergeCell ref="B48:E49"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="L48:N48"/>
-    <mergeCell ref="O48:Q48"/>
-    <mergeCell ref="R48:T48"/>
-    <mergeCell ref="X33:Z33"/>
-    <mergeCell ref="AA33:AG33"/>
-    <mergeCell ref="X34:Z34"/>
-    <mergeCell ref="AA34:AG34"/>
-    <mergeCell ref="A36:D37"/>
-    <mergeCell ref="E36:AG37"/>
-    <mergeCell ref="Q35:T35"/>
-    <mergeCell ref="U35:X35"/>
-    <mergeCell ref="Y35:AG35"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="S50:T50"/>
-    <mergeCell ref="U50:W50"/>
-    <mergeCell ref="U48:W49"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="L49:N49"/>
-    <mergeCell ref="O49:Q49"/>
-    <mergeCell ref="R49:T49"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="S53:T53"/>
-    <mergeCell ref="U53:W53"/>
-    <mergeCell ref="U51:W51"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="S52:T52"/>
-    <mergeCell ref="U52:W52"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="S51:T51"/>
-    <mergeCell ref="T60:X60"/>
-    <mergeCell ref="Y60:AB60"/>
-    <mergeCell ref="AC60:AG60"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:T5"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="D60:H60"/>
-    <mergeCell ref="I60:K60"/>
-    <mergeCell ref="L60:O60"/>
-    <mergeCell ref="P60:S60"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="S54:T54"/>
-    <mergeCell ref="U54:W54"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="M53:N53"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -4090,25 +4020,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8ab0f804-2f3f-4076-aefa-068c53a2c631">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101004E0BCB6CD5F99847BF2D75DDC06E36AA" ma:contentTypeVersion="9" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="27b76a65def3f0510dbfffab4bf63a20">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8ab0f804-2f3f-4076-aefa-068c53a2c631" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d867220c34a4b94053e7547706411462" ns2:_="">
     <xsd:import namespace="8ab0f804-2f3f-4076-aefa-068c53a2c631"/>
@@ -4280,10 +4191,39 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8ab0f804-2f3f-4076-aefa-068c53a2c631">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4BFAFD63-2C88-468B-A0EA-AF222EFACFCE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09765C4C-65C7-4F3E-9C7F-0A6F69C73445}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8ab0f804-2f3f-4076-aefa-068c53a2c631"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4299,19 +4239,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09765C4C-65C7-4F3E-9C7F-0A6F69C73445}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4BFAFD63-2C88-468B-A0EA-AF222EFACFCE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8ab0f804-2f3f-4076-aefa-068c53a2c631"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/TestResult_OCR_v1.xlsx
+++ b/TestResult_OCR_v1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goqkr\Desktop\업무폴더-2025\콜마홀딩스 제안\2. 개발\미생물연구팀_NEW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760161DD-2E1B-4B0D-826C-D9265D50917E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB9EBCDD-CACE-4EB1-8235-50B0275492B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="1900" windowWidth="25580" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="성적서 양식" sheetId="2" r:id="rId1"/>
@@ -259,7 +259,8 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>25B20I17</t>
+    <t>=AA3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1158,7 +1159,199 @@
     <xf numFmtId="184" fontId="8" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="11" fillId="3" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="11" fillId="3" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="11" fillId="3" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="8" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="8" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1179,6 +1372,75 @@
     <xf numFmtId="49" fontId="12" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="2" borderId="24" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="2" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="2" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="2" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="2" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="2" borderId="27" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1186,267 +1448,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="12" fillId="2" borderId="24" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="12" fillId="2" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="12" fillId="2" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="12" fillId="2" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="12" fillId="2" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="12" fillId="2" borderId="27" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="11" fillId="3" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="11" fillId="3" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="11" fillId="3" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="8" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="8" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1737,8 +1738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:DL60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R49" sqref="R49:T49"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.26953125" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1893,89 +1894,89 @@
       <c r="AE2" s="4"/>
       <c r="AF2" s="4"/>
       <c r="AG2" s="6"/>
-      <c r="AH2" s="79"/>
-      <c r="AI2" s="79"/>
-      <c r="AJ2" s="79"/>
-      <c r="AK2" s="79"/>
-      <c r="AL2" s="79"/>
-      <c r="AM2" s="79"/>
-      <c r="AN2" s="79"/>
-      <c r="AO2" s="79"/>
-      <c r="AP2" s="79"/>
-      <c r="AQ2" s="79"/>
-      <c r="AR2" s="79"/>
-      <c r="AS2" s="79"/>
-      <c r="AT2" s="79"/>
-      <c r="AU2" s="79"/>
-      <c r="AV2" s="79"/>
-      <c r="AW2" s="67"/>
-      <c r="AX2" s="67"/>
-      <c r="AY2" s="67"/>
-      <c r="AZ2" s="67"/>
-      <c r="BA2" s="67"/>
-      <c r="BB2" s="67"/>
-      <c r="BC2" s="67"/>
-      <c r="BD2" s="67"/>
-      <c r="BE2" s="67"/>
-      <c r="BF2" s="67"/>
-      <c r="BG2" s="67"/>
-      <c r="BH2" s="67"/>
-      <c r="BI2" s="79"/>
-      <c r="BJ2" s="79"/>
-      <c r="BK2" s="79"/>
-      <c r="BL2" s="79"/>
-      <c r="BM2" s="79"/>
-      <c r="BN2" s="79"/>
-      <c r="BO2" s="79"/>
-      <c r="BP2" s="79"/>
-      <c r="BQ2" s="79"/>
-      <c r="BR2" s="79"/>
-      <c r="BS2" s="79"/>
-      <c r="BT2" s="79"/>
-      <c r="BU2" s="79"/>
-      <c r="BV2" s="79"/>
-      <c r="BW2" s="79"/>
-      <c r="BX2" s="79"/>
-      <c r="BY2" s="67"/>
-      <c r="BZ2" s="67"/>
-      <c r="CA2" s="67"/>
-      <c r="CB2" s="67"/>
-      <c r="CC2" s="67"/>
-      <c r="CD2" s="67"/>
-      <c r="CE2" s="67"/>
-      <c r="CF2" s="67"/>
-      <c r="CG2" s="67"/>
-      <c r="CH2" s="67"/>
-      <c r="CI2" s="67"/>
-      <c r="CJ2" s="67"/>
-      <c r="CK2" s="79"/>
-      <c r="CL2" s="79"/>
-      <c r="CM2" s="79"/>
-      <c r="CN2" s="79"/>
-      <c r="CO2" s="79"/>
-      <c r="CP2" s="79"/>
-      <c r="CQ2" s="79"/>
-      <c r="CR2" s="79"/>
-      <c r="CS2" s="79"/>
-      <c r="CT2" s="79"/>
-      <c r="CU2" s="79"/>
-      <c r="CV2" s="79"/>
-      <c r="CW2" s="79"/>
-      <c r="CX2" s="79"/>
-      <c r="CY2" s="79"/>
-      <c r="CZ2" s="79"/>
-      <c r="DA2" s="67"/>
-      <c r="DB2" s="67"/>
-      <c r="DC2" s="67"/>
-      <c r="DD2" s="67"/>
-      <c r="DE2" s="67"/>
-      <c r="DF2" s="67"/>
-      <c r="DG2" s="67"/>
-      <c r="DH2" s="67"/>
-      <c r="DI2" s="67"/>
-      <c r="DJ2" s="67"/>
-      <c r="DK2" s="67"/>
-      <c r="DL2" s="67"/>
+      <c r="AH2" s="159"/>
+      <c r="AI2" s="159"/>
+      <c r="AJ2" s="159"/>
+      <c r="AK2" s="159"/>
+      <c r="AL2" s="159"/>
+      <c r="AM2" s="159"/>
+      <c r="AN2" s="159"/>
+      <c r="AO2" s="159"/>
+      <c r="AP2" s="159"/>
+      <c r="AQ2" s="159"/>
+      <c r="AR2" s="159"/>
+      <c r="AS2" s="159"/>
+      <c r="AT2" s="159"/>
+      <c r="AU2" s="159"/>
+      <c r="AV2" s="159"/>
+      <c r="AW2" s="160"/>
+      <c r="AX2" s="160"/>
+      <c r="AY2" s="160"/>
+      <c r="AZ2" s="160"/>
+      <c r="BA2" s="160"/>
+      <c r="BB2" s="160"/>
+      <c r="BC2" s="160"/>
+      <c r="BD2" s="160"/>
+      <c r="BE2" s="160"/>
+      <c r="BF2" s="160"/>
+      <c r="BG2" s="160"/>
+      <c r="BH2" s="160"/>
+      <c r="BI2" s="159"/>
+      <c r="BJ2" s="159"/>
+      <c r="BK2" s="159"/>
+      <c r="BL2" s="159"/>
+      <c r="BM2" s="159"/>
+      <c r="BN2" s="159"/>
+      <c r="BO2" s="159"/>
+      <c r="BP2" s="159"/>
+      <c r="BQ2" s="159"/>
+      <c r="BR2" s="159"/>
+      <c r="BS2" s="159"/>
+      <c r="BT2" s="159"/>
+      <c r="BU2" s="159"/>
+      <c r="BV2" s="159"/>
+      <c r="BW2" s="159"/>
+      <c r="BX2" s="159"/>
+      <c r="BY2" s="160"/>
+      <c r="BZ2" s="160"/>
+      <c r="CA2" s="160"/>
+      <c r="CB2" s="160"/>
+      <c r="CC2" s="160"/>
+      <c r="CD2" s="160"/>
+      <c r="CE2" s="160"/>
+      <c r="CF2" s="160"/>
+      <c r="CG2" s="160"/>
+      <c r="CH2" s="160"/>
+      <c r="CI2" s="160"/>
+      <c r="CJ2" s="160"/>
+      <c r="CK2" s="159"/>
+      <c r="CL2" s="159"/>
+      <c r="CM2" s="159"/>
+      <c r="CN2" s="159"/>
+      <c r="CO2" s="159"/>
+      <c r="CP2" s="159"/>
+      <c r="CQ2" s="159"/>
+      <c r="CR2" s="159"/>
+      <c r="CS2" s="159"/>
+      <c r="CT2" s="159"/>
+      <c r="CU2" s="159"/>
+      <c r="CV2" s="159"/>
+      <c r="CW2" s="159"/>
+      <c r="CX2" s="159"/>
+      <c r="CY2" s="159"/>
+      <c r="CZ2" s="159"/>
+      <c r="DA2" s="160"/>
+      <c r="DB2" s="160"/>
+      <c r="DC2" s="160"/>
+      <c r="DD2" s="160"/>
+      <c r="DE2" s="160"/>
+      <c r="DF2" s="160"/>
+      <c r="DG2" s="160"/>
+      <c r="DH2" s="160"/>
+      <c r="DI2" s="160"/>
+      <c r="DJ2" s="160"/>
+      <c r="DK2" s="160"/>
+      <c r="DL2" s="160"/>
     </row>
     <row r="3" spans="1:116" ht="28" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -2003,20 +2004,20 @@
       <c r="U3" s="13"/>
       <c r="V3" s="13"/>
       <c r="W3" s="14"/>
-      <c r="X3" s="68" t="s">
+      <c r="X3" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="Y3" s="69"/>
-      <c r="Z3" s="70"/>
-      <c r="AA3" s="71" t="s">
+      <c r="Y3" s="133"/>
+      <c r="Z3" s="134"/>
+      <c r="AA3" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="AB3" s="72"/>
-      <c r="AC3" s="72"/>
-      <c r="AD3" s="72"/>
-      <c r="AE3" s="72"/>
-      <c r="AF3" s="72"/>
-      <c r="AG3" s="73"/>
+      <c r="AB3" s="136"/>
+      <c r="AC3" s="136"/>
+      <c r="AD3" s="136"/>
+      <c r="AE3" s="136"/>
+      <c r="AF3" s="136"/>
+      <c r="AG3" s="137"/>
       <c r="AH3" s="16"/>
       <c r="AI3" s="17"/>
       <c r="AJ3" s="18"/>
@@ -2127,147 +2128,147 @@
       <c r="U4" s="58"/>
       <c r="V4" s="58"/>
       <c r="W4" s="58"/>
-      <c r="X4" s="74"/>
-      <c r="Y4" s="74"/>
-      <c r="Z4" s="74"/>
-      <c r="AA4" s="75"/>
-      <c r="AB4" s="76"/>
-      <c r="AC4" s="76"/>
-      <c r="AD4" s="76"/>
-      <c r="AE4" s="76"/>
-      <c r="AF4" s="77"/>
-      <c r="AG4" s="78"/>
+      <c r="X4" s="161"/>
+      <c r="Y4" s="161"/>
+      <c r="Z4" s="161"/>
+      <c r="AA4" s="162"/>
+      <c r="AB4" s="163"/>
+      <c r="AC4" s="163"/>
+      <c r="AD4" s="163"/>
+      <c r="AE4" s="163"/>
+      <c r="AF4" s="140"/>
+      <c r="AG4" s="141"/>
       <c r="AH4" s="26"/>
     </row>
     <row r="5" spans="1:116" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="150" t="s">
+      <c r="A5" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="151"/>
-      <c r="C5" s="151"/>
-      <c r="D5" s="152"/>
-      <c r="E5" s="158"/>
-      <c r="F5" s="159"/>
-      <c r="G5" s="159"/>
-      <c r="H5" s="160"/>
-      <c r="I5" s="148" t="s">
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="149"/>
-      <c r="K5" s="161"/>
-      <c r="L5" s="162"/>
-      <c r="M5" s="162"/>
-      <c r="N5" s="163"/>
-      <c r="O5" s="148" t="s">
+      <c r="J5" s="81"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="149"/>
-      <c r="Q5" s="161"/>
-      <c r="R5" s="162"/>
-      <c r="S5" s="162"/>
-      <c r="T5" s="163"/>
-      <c r="U5" s="111" t="s">
+      <c r="P5" s="81"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="83"/>
+      <c r="T5" s="84"/>
+      <c r="U5" s="154" t="s">
         <v>9</v>
       </c>
-      <c r="V5" s="111"/>
-      <c r="W5" s="111"/>
-      <c r="X5" s="111"/>
-      <c r="Y5" s="112"/>
-      <c r="Z5" s="112"/>
-      <c r="AA5" s="112"/>
-      <c r="AB5" s="112"/>
-      <c r="AC5" s="112"/>
-      <c r="AD5" s="112"/>
-      <c r="AE5" s="112"/>
-      <c r="AF5" s="112"/>
-      <c r="AG5" s="112"/>
+      <c r="V5" s="154"/>
+      <c r="W5" s="154"/>
+      <c r="X5" s="154"/>
+      <c r="Y5" s="155"/>
+      <c r="Z5" s="155"/>
+      <c r="AA5" s="155"/>
+      <c r="AB5" s="155"/>
+      <c r="AC5" s="155"/>
+      <c r="AD5" s="155"/>
+      <c r="AE5" s="155"/>
+      <c r="AF5" s="155"/>
+      <c r="AG5" s="155"/>
       <c r="AH5" s="26"/>
     </row>
     <row r="6" spans="1:116" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="87"/>
-      <c r="O6" s="87"/>
-      <c r="P6" s="87"/>
-      <c r="Q6" s="87"/>
-      <c r="R6" s="87"/>
-      <c r="S6" s="87"/>
-      <c r="T6" s="87"/>
-      <c r="U6" s="87"/>
-      <c r="V6" s="87"/>
-      <c r="W6" s="87"/>
-      <c r="X6" s="87"/>
-      <c r="Y6" s="87"/>
-      <c r="Z6" s="87"/>
-      <c r="AA6" s="87"/>
-      <c r="AB6" s="87"/>
-      <c r="AC6" s="87"/>
-      <c r="AD6" s="87"/>
-      <c r="AE6" s="87"/>
-      <c r="AF6" s="87"/>
-      <c r="AG6" s="88"/>
+      <c r="B6" s="143"/>
+      <c r="C6" s="143"/>
+      <c r="D6" s="144"/>
+      <c r="E6" s="148"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="149"/>
+      <c r="H6" s="149"/>
+      <c r="I6" s="149"/>
+      <c r="J6" s="149"/>
+      <c r="K6" s="149"/>
+      <c r="L6" s="149"/>
+      <c r="M6" s="149"/>
+      <c r="N6" s="149"/>
+      <c r="O6" s="149"/>
+      <c r="P6" s="149"/>
+      <c r="Q6" s="149"/>
+      <c r="R6" s="149"/>
+      <c r="S6" s="149"/>
+      <c r="T6" s="149"/>
+      <c r="U6" s="149"/>
+      <c r="V6" s="149"/>
+      <c r="W6" s="149"/>
+      <c r="X6" s="149"/>
+      <c r="Y6" s="149"/>
+      <c r="Z6" s="149"/>
+      <c r="AA6" s="149"/>
+      <c r="AB6" s="149"/>
+      <c r="AC6" s="149"/>
+      <c r="AD6" s="149"/>
+      <c r="AE6" s="149"/>
+      <c r="AF6" s="149"/>
+      <c r="AG6" s="150"/>
       <c r="AH6" s="26"/>
     </row>
     <row r="7" spans="1:116" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="83"/>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="90"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
-      <c r="P7" s="90"/>
-      <c r="Q7" s="90"/>
-      <c r="R7" s="90"/>
-      <c r="S7" s="90"/>
-      <c r="T7" s="90"/>
-      <c r="U7" s="90"/>
-      <c r="V7" s="90"/>
-      <c r="W7" s="90"/>
-      <c r="X7" s="90"/>
-      <c r="Y7" s="90"/>
-      <c r="Z7" s="90"/>
-      <c r="AA7" s="90"/>
-      <c r="AB7" s="90"/>
-      <c r="AC7" s="90"/>
-      <c r="AD7" s="90"/>
-      <c r="AE7" s="90"/>
-      <c r="AF7" s="90"/>
-      <c r="AG7" s="91"/>
+      <c r="A7" s="145"/>
+      <c r="B7" s="146"/>
+      <c r="C7" s="146"/>
+      <c r="D7" s="147"/>
+      <c r="E7" s="151"/>
+      <c r="F7" s="152"/>
+      <c r="G7" s="152"/>
+      <c r="H7" s="152"/>
+      <c r="I7" s="152"/>
+      <c r="J7" s="152"/>
+      <c r="K7" s="152"/>
+      <c r="L7" s="152"/>
+      <c r="M7" s="152"/>
+      <c r="N7" s="152"/>
+      <c r="O7" s="152"/>
+      <c r="P7" s="152"/>
+      <c r="Q7" s="152"/>
+      <c r="R7" s="152"/>
+      <c r="S7" s="152"/>
+      <c r="T7" s="152"/>
+      <c r="U7" s="152"/>
+      <c r="V7" s="152"/>
+      <c r="W7" s="152"/>
+      <c r="X7" s="152"/>
+      <c r="Y7" s="152"/>
+      <c r="Z7" s="152"/>
+      <c r="AA7" s="152"/>
+      <c r="AB7" s="152"/>
+      <c r="AC7" s="152"/>
+      <c r="AD7" s="152"/>
+      <c r="AE7" s="152"/>
+      <c r="AF7" s="152"/>
+      <c r="AG7" s="153"/>
     </row>
     <row r="8" spans="1:116" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="92" t="s">
+      <c r="A8" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="93"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="94"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="87"/>
       <c r="J8" s="27"/>
       <c r="K8" s="27"/>
       <c r="L8" s="27"/>
@@ -2449,85 +2450,85 @@
     </row>
     <row r="18" spans="1:116" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29"/>
-      <c r="B18" s="95" t="s">
+      <c r="B18" s="122" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="101" t="s">
+      <c r="C18" s="123"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="124"/>
+      <c r="F18" s="128" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="102"/>
-      <c r="H18" s="103"/>
-      <c r="I18" s="104" t="s">
+      <c r="G18" s="129"/>
+      <c r="H18" s="130"/>
+      <c r="I18" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="93"/>
-      <c r="K18" s="94"/>
-      <c r="L18" s="104">
+      <c r="J18" s="86"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="131">
         <v>7</v>
       </c>
-      <c r="M18" s="93"/>
-      <c r="N18" s="94"/>
-      <c r="O18" s="104">
+      <c r="M18" s="86"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="131">
         <v>14</v>
       </c>
-      <c r="P18" s="93"/>
-      <c r="Q18" s="94"/>
-      <c r="R18" s="104">
+      <c r="P18" s="86"/>
+      <c r="Q18" s="87"/>
+      <c r="R18" s="131">
         <v>28</v>
       </c>
-      <c r="S18" s="93"/>
-      <c r="T18" s="94"/>
-      <c r="U18" s="105" t="s">
+      <c r="S18" s="86"/>
+      <c r="T18" s="87"/>
+      <c r="U18" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="V18" s="106"/>
-      <c r="W18" s="107"/>
+      <c r="V18" s="111"/>
+      <c r="W18" s="112"/>
       <c r="AG18" s="32"/>
     </row>
     <row r="19" spans="1:116" ht="35.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29"/>
-      <c r="B19" s="98"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="124" t="s">
+      <c r="B19" s="125"/>
+      <c r="C19" s="126"/>
+      <c r="D19" s="126"/>
+      <c r="E19" s="127"/>
+      <c r="F19" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="125"/>
-      <c r="H19" s="126"/>
-      <c r="I19" s="127"/>
-      <c r="J19" s="128"/>
-      <c r="K19" s="129"/>
-      <c r="L19" s="127"/>
-      <c r="M19" s="128"/>
-      <c r="N19" s="129"/>
-      <c r="O19" s="127"/>
-      <c r="P19" s="128"/>
-      <c r="Q19" s="129"/>
-      <c r="R19" s="127"/>
-      <c r="S19" s="128"/>
-      <c r="T19" s="129"/>
-      <c r="U19" s="108"/>
-      <c r="V19" s="109"/>
-      <c r="W19" s="110"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="118"/>
+      <c r="I19" s="119"/>
+      <c r="J19" s="120"/>
+      <c r="K19" s="121"/>
+      <c r="L19" s="119"/>
+      <c r="M19" s="120"/>
+      <c r="N19" s="121"/>
+      <c r="O19" s="119"/>
+      <c r="P19" s="120"/>
+      <c r="Q19" s="121"/>
+      <c r="R19" s="119"/>
+      <c r="S19" s="120"/>
+      <c r="T19" s="121"/>
+      <c r="U19" s="113"/>
+      <c r="V19" s="114"/>
+      <c r="W19" s="115"/>
       <c r="AG19" s="32"/>
     </row>
     <row r="20" spans="1:116" ht="35.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="29"/>
-      <c r="B20" s="116" t="s">
+      <c r="B20" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="117"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="119" t="s">
+      <c r="C20" s="108"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="109"/>
+      <c r="F20" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="G20" s="120"/>
-      <c r="H20" s="121"/>
+      <c r="G20" s="97"/>
+      <c r="H20" s="98"/>
       <c r="I20" s="60"/>
       <c r="J20" s="61"/>
       <c r="K20" s="62"/>
@@ -2540,24 +2541,24 @@
       <c r="R20" s="60"/>
       <c r="S20" s="61"/>
       <c r="T20" s="62"/>
-      <c r="U20" s="113"/>
-      <c r="V20" s="114"/>
-      <c r="W20" s="115"/>
+      <c r="U20" s="101"/>
+      <c r="V20" s="102"/>
+      <c r="W20" s="103"/>
       <c r="AG20" s="32"/>
     </row>
     <row r="21" spans="1:116" ht="35.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="29"/>
-      <c r="B21" s="116" t="s">
+      <c r="B21" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="117"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="119" t="s">
+      <c r="C21" s="108"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="120"/>
-      <c r="H21" s="121"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="98"/>
       <c r="I21" s="60"/>
       <c r="J21" s="61"/>
       <c r="K21" s="62"/>
@@ -2570,9 +2571,9 @@
       <c r="R21" s="60"/>
       <c r="S21" s="61"/>
       <c r="T21" s="62"/>
-      <c r="U21" s="113"/>
-      <c r="V21" s="114"/>
-      <c r="W21" s="115"/>
+      <c r="U21" s="101"/>
+      <c r="V21" s="102"/>
+      <c r="W21" s="103"/>
       <c r="AB21" s="4" t="s">
         <v>1</v>
       </c>
@@ -2580,17 +2581,17 @@
     </row>
     <row r="22" spans="1:116" ht="35.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29"/>
-      <c r="B22" s="116" t="s">
+      <c r="B22" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="122"/>
-      <c r="D22" s="122"/>
-      <c r="E22" s="123"/>
-      <c r="F22" s="119" t="s">
+      <c r="C22" s="106"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="120"/>
-      <c r="H22" s="121"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="98"/>
       <c r="I22" s="60"/>
       <c r="J22" s="61"/>
       <c r="K22" s="62"/>
@@ -2603,9 +2604,9 @@
       <c r="R22" s="60"/>
       <c r="S22" s="61"/>
       <c r="T22" s="62"/>
-      <c r="U22" s="113"/>
-      <c r="V22" s="114"/>
-      <c r="W22" s="115"/>
+      <c r="U22" s="101"/>
+      <c r="V22" s="102"/>
+      <c r="W22" s="103"/>
       <c r="AG22" s="32"/>
     </row>
     <row r="23" spans="1:116" ht="35.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2616,11 +2617,11 @@
       <c r="C23" s="44"/>
       <c r="D23" s="44"/>
       <c r="E23" s="45"/>
-      <c r="F23" s="119" t="s">
+      <c r="F23" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="120"/>
-      <c r="H23" s="121"/>
+      <c r="G23" s="97"/>
+      <c r="H23" s="98"/>
       <c r="I23" s="60"/>
       <c r="J23" s="61"/>
       <c r="K23" s="62"/>
@@ -2633,9 +2634,9 @@
       <c r="R23" s="60"/>
       <c r="S23" s="61"/>
       <c r="T23" s="62"/>
-      <c r="U23" s="113"/>
-      <c r="V23" s="114"/>
-      <c r="W23" s="115"/>
+      <c r="U23" s="101"/>
+      <c r="V23" s="102"/>
+      <c r="W23" s="103"/>
       <c r="AG23" s="32"/>
     </row>
     <row r="24" spans="1:116" ht="35.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2646,11 +2647,11 @@
       <c r="C24" s="47"/>
       <c r="D24" s="47"/>
       <c r="E24" s="48"/>
-      <c r="F24" s="130" t="s">
+      <c r="F24" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="G24" s="120"/>
-      <c r="H24" s="121"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="98"/>
       <c r="I24" s="60"/>
       <c r="J24" s="61"/>
       <c r="K24" s="62"/>
@@ -2663,9 +2664,9 @@
       <c r="R24" s="60"/>
       <c r="S24" s="61"/>
       <c r="T24" s="62"/>
-      <c r="U24" s="113"/>
-      <c r="V24" s="114"/>
-      <c r="W24" s="115"/>
+      <c r="U24" s="101"/>
+      <c r="V24" s="102"/>
+      <c r="W24" s="103"/>
       <c r="AG24" s="32"/>
     </row>
     <row r="25" spans="1:116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2708,13 +2709,13 @@
       <c r="AG25" s="38"/>
     </row>
     <row r="26" spans="1:116" ht="35.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="92" t="s">
+      <c r="A26" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="93"/>
-      <c r="C26" s="93"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="94"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="87"/>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
@@ -2778,52 +2779,52 @@
       <c r="AG29" s="32"/>
     </row>
     <row r="30" spans="1:116" s="52" customFormat="1" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="131" t="s">
+      <c r="A30" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="132"/>
-      <c r="C30" s="133"/>
-      <c r="D30" s="134" t="s">
+      <c r="B30" s="71"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="135"/>
-      <c r="F30" s="135"/>
-      <c r="G30" s="135"/>
-      <c r="H30" s="136"/>
-      <c r="I30" s="137" t="s">
+      <c r="E30" s="91"/>
+      <c r="F30" s="91"/>
+      <c r="G30" s="91"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="J30" s="132"/>
-      <c r="K30" s="138"/>
-      <c r="L30" s="139">
+      <c r="J30" s="71"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="93">
         <f>R19+5</f>
         <v>5</v>
       </c>
-      <c r="M30" s="140"/>
-      <c r="N30" s="140"/>
-      <c r="O30" s="141"/>
-      <c r="P30" s="137" t="s">
+      <c r="M30" s="94"/>
+      <c r="N30" s="94"/>
+      <c r="O30" s="95"/>
+      <c r="P30" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="Q30" s="132"/>
-      <c r="R30" s="132"/>
-      <c r="S30" s="138"/>
-      <c r="T30" s="142"/>
-      <c r="U30" s="143"/>
-      <c r="V30" s="143"/>
-      <c r="W30" s="143"/>
-      <c r="X30" s="144"/>
-      <c r="Y30" s="137" t="s">
+      <c r="Q30" s="71"/>
+      <c r="R30" s="71"/>
+      <c r="S30" s="72"/>
+      <c r="T30" s="67"/>
+      <c r="U30" s="68"/>
+      <c r="V30" s="68"/>
+      <c r="W30" s="68"/>
+      <c r="X30" s="69"/>
+      <c r="Y30" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="Z30" s="132"/>
-      <c r="AA30" s="132"/>
-      <c r="AB30" s="138"/>
-      <c r="AC30" s="142"/>
-      <c r="AD30" s="143"/>
-      <c r="AE30" s="143"/>
-      <c r="AF30" s="143"/>
-      <c r="AG30" s="145"/>
+      <c r="Z30" s="71"/>
+      <c r="AA30" s="71"/>
+      <c r="AB30" s="72"/>
+      <c r="AC30" s="67"/>
+      <c r="AD30" s="68"/>
+      <c r="AE30" s="68"/>
+      <c r="AF30" s="68"/>
+      <c r="AG30" s="73"/>
     </row>
     <row r="31" spans="1:116" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
@@ -2900,89 +2901,89 @@
       <c r="AE32" s="4"/>
       <c r="AF32" s="4"/>
       <c r="AG32" s="6"/>
-      <c r="AH32" s="79"/>
-      <c r="AI32" s="79"/>
-      <c r="AJ32" s="79"/>
-      <c r="AK32" s="79"/>
-      <c r="AL32" s="79"/>
-      <c r="AM32" s="79"/>
-      <c r="AN32" s="79"/>
-      <c r="AO32" s="79"/>
-      <c r="AP32" s="79"/>
-      <c r="AQ32" s="79"/>
-      <c r="AR32" s="79"/>
-      <c r="AS32" s="79"/>
-      <c r="AT32" s="79"/>
-      <c r="AU32" s="79"/>
-      <c r="AV32" s="79"/>
-      <c r="AW32" s="67"/>
-      <c r="AX32" s="67"/>
-      <c r="AY32" s="67"/>
-      <c r="AZ32" s="67"/>
-      <c r="BA32" s="67"/>
-      <c r="BB32" s="67"/>
-      <c r="BC32" s="67"/>
-      <c r="BD32" s="67"/>
-      <c r="BE32" s="67"/>
-      <c r="BF32" s="67"/>
-      <c r="BG32" s="67"/>
-      <c r="BH32" s="67"/>
-      <c r="BI32" s="79"/>
-      <c r="BJ32" s="79"/>
-      <c r="BK32" s="79"/>
-      <c r="BL32" s="79"/>
-      <c r="BM32" s="79"/>
-      <c r="BN32" s="79"/>
-      <c r="BO32" s="79"/>
-      <c r="BP32" s="79"/>
-      <c r="BQ32" s="79"/>
-      <c r="BR32" s="79"/>
-      <c r="BS32" s="79"/>
-      <c r="BT32" s="79"/>
-      <c r="BU32" s="79"/>
-      <c r="BV32" s="79"/>
-      <c r="BW32" s="79"/>
-      <c r="BX32" s="79"/>
-      <c r="BY32" s="67"/>
-      <c r="BZ32" s="67"/>
-      <c r="CA32" s="67"/>
-      <c r="CB32" s="67"/>
-      <c r="CC32" s="67"/>
-      <c r="CD32" s="67"/>
-      <c r="CE32" s="67"/>
-      <c r="CF32" s="67"/>
-      <c r="CG32" s="67"/>
-      <c r="CH32" s="67"/>
-      <c r="CI32" s="67"/>
-      <c r="CJ32" s="67"/>
-      <c r="CK32" s="79"/>
-      <c r="CL32" s="79"/>
-      <c r="CM32" s="79"/>
-      <c r="CN32" s="79"/>
-      <c r="CO32" s="79"/>
-      <c r="CP32" s="79"/>
-      <c r="CQ32" s="79"/>
-      <c r="CR32" s="79"/>
-      <c r="CS32" s="79"/>
-      <c r="CT32" s="79"/>
-      <c r="CU32" s="79"/>
-      <c r="CV32" s="79"/>
-      <c r="CW32" s="79"/>
-      <c r="CX32" s="79"/>
-      <c r="CY32" s="79"/>
-      <c r="CZ32" s="79"/>
-      <c r="DA32" s="67"/>
-      <c r="DB32" s="67"/>
-      <c r="DC32" s="67"/>
-      <c r="DD32" s="67"/>
-      <c r="DE32" s="67"/>
-      <c r="DF32" s="67"/>
-      <c r="DG32" s="67"/>
-      <c r="DH32" s="67"/>
-      <c r="DI32" s="67"/>
-      <c r="DJ32" s="67"/>
-      <c r="DK32" s="67"/>
-      <c r="DL32" s="67"/>
+      <c r="AH32" s="159"/>
+      <c r="AI32" s="159"/>
+      <c r="AJ32" s="159"/>
+      <c r="AK32" s="159"/>
+      <c r="AL32" s="159"/>
+      <c r="AM32" s="159"/>
+      <c r="AN32" s="159"/>
+      <c r="AO32" s="159"/>
+      <c r="AP32" s="159"/>
+      <c r="AQ32" s="159"/>
+      <c r="AR32" s="159"/>
+      <c r="AS32" s="159"/>
+      <c r="AT32" s="159"/>
+      <c r="AU32" s="159"/>
+      <c r="AV32" s="159"/>
+      <c r="AW32" s="160"/>
+      <c r="AX32" s="160"/>
+      <c r="AY32" s="160"/>
+      <c r="AZ32" s="160"/>
+      <c r="BA32" s="160"/>
+      <c r="BB32" s="160"/>
+      <c r="BC32" s="160"/>
+      <c r="BD32" s="160"/>
+      <c r="BE32" s="160"/>
+      <c r="BF32" s="160"/>
+      <c r="BG32" s="160"/>
+      <c r="BH32" s="160"/>
+      <c r="BI32" s="159"/>
+      <c r="BJ32" s="159"/>
+      <c r="BK32" s="159"/>
+      <c r="BL32" s="159"/>
+      <c r="BM32" s="159"/>
+      <c r="BN32" s="159"/>
+      <c r="BO32" s="159"/>
+      <c r="BP32" s="159"/>
+      <c r="BQ32" s="159"/>
+      <c r="BR32" s="159"/>
+      <c r="BS32" s="159"/>
+      <c r="BT32" s="159"/>
+      <c r="BU32" s="159"/>
+      <c r="BV32" s="159"/>
+      <c r="BW32" s="159"/>
+      <c r="BX32" s="159"/>
+      <c r="BY32" s="160"/>
+      <c r="BZ32" s="160"/>
+      <c r="CA32" s="160"/>
+      <c r="CB32" s="160"/>
+      <c r="CC32" s="160"/>
+      <c r="CD32" s="160"/>
+      <c r="CE32" s="160"/>
+      <c r="CF32" s="160"/>
+      <c r="CG32" s="160"/>
+      <c r="CH32" s="160"/>
+      <c r="CI32" s="160"/>
+      <c r="CJ32" s="160"/>
+      <c r="CK32" s="159"/>
+      <c r="CL32" s="159"/>
+      <c r="CM32" s="159"/>
+      <c r="CN32" s="159"/>
+      <c r="CO32" s="159"/>
+      <c r="CP32" s="159"/>
+      <c r="CQ32" s="159"/>
+      <c r="CR32" s="159"/>
+      <c r="CS32" s="159"/>
+      <c r="CT32" s="159"/>
+      <c r="CU32" s="159"/>
+      <c r="CV32" s="159"/>
+      <c r="CW32" s="159"/>
+      <c r="CX32" s="159"/>
+      <c r="CY32" s="159"/>
+      <c r="CZ32" s="159"/>
+      <c r="DA32" s="160"/>
+      <c r="DB32" s="160"/>
+      <c r="DC32" s="160"/>
+      <c r="DD32" s="160"/>
+      <c r="DE32" s="160"/>
+      <c r="DF32" s="160"/>
+      <c r="DG32" s="160"/>
+      <c r="DH32" s="160"/>
+      <c r="DI32" s="160"/>
+      <c r="DJ32" s="160"/>
+      <c r="DK32" s="160"/>
+      <c r="DL32" s="160"/>
     </row>
     <row r="33" spans="1:116" ht="28" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
@@ -2991,7 +2992,10 @@
       <c r="B33" s="9"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
-      <c r="E33" s="64"/>
+      <c r="E33" s="64">
+        <f>E3</f>
+        <v>0</v>
+      </c>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
@@ -3010,20 +3014,20 @@
       <c r="U33" s="13"/>
       <c r="V33" s="13"/>
       <c r="W33" s="14"/>
-      <c r="X33" s="68" t="s">
+      <c r="X33" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="Y33" s="69"/>
-      <c r="Z33" s="70"/>
-      <c r="AA33" s="71" t="s">
+      <c r="Y33" s="133"/>
+      <c r="Z33" s="134"/>
+      <c r="AA33" s="135" t="s">
         <v>43</v>
       </c>
-      <c r="AB33" s="72"/>
-      <c r="AC33" s="72"/>
-      <c r="AD33" s="72"/>
-      <c r="AE33" s="72"/>
-      <c r="AF33" s="72"/>
-      <c r="AG33" s="73"/>
+      <c r="AB33" s="136"/>
+      <c r="AC33" s="136"/>
+      <c r="AD33" s="136"/>
+      <c r="AE33" s="136"/>
+      <c r="AF33" s="136"/>
+      <c r="AG33" s="137"/>
       <c r="AH33" s="16"/>
       <c r="AI33" s="17"/>
       <c r="AJ33" s="18"/>
@@ -3115,7 +3119,10 @@
       <c r="B34" s="20"/>
       <c r="C34" s="21"/>
       <c r="D34" s="22"/>
-      <c r="E34" s="65"/>
+      <c r="E34" s="65">
+        <f>E4</f>
+        <v>0</v>
+      </c>
       <c r="F34" s="56"/>
       <c r="G34" s="23"/>
       <c r="H34" s="23"/>
@@ -3134,147 +3141,153 @@
       <c r="U34" s="25"/>
       <c r="V34" s="25"/>
       <c r="W34" s="25"/>
-      <c r="X34" s="146"/>
-      <c r="Y34" s="146"/>
-      <c r="Z34" s="146"/>
-      <c r="AA34" s="147"/>
-      <c r="AB34" s="77"/>
-      <c r="AC34" s="77"/>
-      <c r="AD34" s="77"/>
-      <c r="AE34" s="77"/>
-      <c r="AF34" s="77"/>
-      <c r="AG34" s="78"/>
+      <c r="X34" s="138"/>
+      <c r="Y34" s="138"/>
+      <c r="Z34" s="138"/>
+      <c r="AA34" s="139"/>
+      <c r="AB34" s="140"/>
+      <c r="AC34" s="140"/>
+      <c r="AD34" s="140"/>
+      <c r="AE34" s="140"/>
+      <c r="AF34" s="140"/>
+      <c r="AG34" s="141"/>
       <c r="AH34" s="26"/>
     </row>
     <row r="35" spans="1:116" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="150" t="s">
+      <c r="A35" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="151"/>
-      <c r="C35" s="151"/>
-      <c r="D35" s="152"/>
-      <c r="E35" s="153"/>
-      <c r="F35" s="154"/>
-      <c r="G35" s="154"/>
-      <c r="H35" s="155"/>
-      <c r="I35" s="148" t="s">
+      <c r="B35" s="75"/>
+      <c r="C35" s="75"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="156"/>
+      <c r="F35" s="157"/>
+      <c r="G35" s="157"/>
+      <c r="H35" s="158"/>
+      <c r="I35" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="J35" s="149"/>
-      <c r="K35" s="148"/>
-      <c r="L35" s="77"/>
-      <c r="M35" s="77"/>
-      <c r="N35" s="149"/>
-      <c r="O35" s="148" t="s">
+      <c r="J35" s="81"/>
+      <c r="K35" s="80"/>
+      <c r="L35" s="140"/>
+      <c r="M35" s="140"/>
+      <c r="N35" s="81"/>
+      <c r="O35" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="P35" s="149"/>
-      <c r="Q35" s="148"/>
-      <c r="R35" s="77"/>
-      <c r="S35" s="77"/>
-      <c r="T35" s="149"/>
-      <c r="U35" s="111" t="s">
+      <c r="P35" s="81"/>
+      <c r="Q35" s="80"/>
+      <c r="R35" s="140"/>
+      <c r="S35" s="140"/>
+      <c r="T35" s="81"/>
+      <c r="U35" s="154" t="s">
         <v>9</v>
       </c>
-      <c r="V35" s="111"/>
-      <c r="W35" s="111"/>
-      <c r="X35" s="111"/>
-      <c r="Y35" s="112"/>
-      <c r="Z35" s="112"/>
-      <c r="AA35" s="112"/>
-      <c r="AB35" s="112"/>
-      <c r="AC35" s="112"/>
-      <c r="AD35" s="112"/>
-      <c r="AE35" s="112"/>
-      <c r="AF35" s="112"/>
-      <c r="AG35" s="112"/>
+      <c r="V35" s="154"/>
+      <c r="W35" s="154"/>
+      <c r="X35" s="154"/>
+      <c r="Y35" s="155">
+        <f>Y5</f>
+        <v>0</v>
+      </c>
+      <c r="Z35" s="155"/>
+      <c r="AA35" s="155"/>
+      <c r="AB35" s="155"/>
+      <c r="AC35" s="155"/>
+      <c r="AD35" s="155"/>
+      <c r="AE35" s="155"/>
+      <c r="AF35" s="155"/>
+      <c r="AG35" s="155"/>
       <c r="AH35" s="26"/>
     </row>
     <row r="36" spans="1:116" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="80" t="s">
+      <c r="A36" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="81"/>
-      <c r="C36" s="81"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="86"/>
-      <c r="F36" s="87"/>
-      <c r="G36" s="87"/>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
-      <c r="J36" s="87"/>
-      <c r="K36" s="87"/>
-      <c r="L36" s="87"/>
-      <c r="M36" s="87"/>
-      <c r="N36" s="87"/>
-      <c r="O36" s="87"/>
-      <c r="P36" s="87"/>
-      <c r="Q36" s="87"/>
-      <c r="R36" s="87"/>
-      <c r="S36" s="87"/>
-      <c r="T36" s="87"/>
-      <c r="U36" s="87"/>
-      <c r="V36" s="87"/>
-      <c r="W36" s="87"/>
-      <c r="X36" s="87"/>
-      <c r="Y36" s="87"/>
-      <c r="Z36" s="87"/>
-      <c r="AA36" s="87"/>
-      <c r="AB36" s="87"/>
-      <c r="AC36" s="87"/>
-      <c r="AD36" s="87"/>
-      <c r="AE36" s="87"/>
-      <c r="AF36" s="87"/>
-      <c r="AG36" s="88"/>
+      <c r="B36" s="143"/>
+      <c r="C36" s="143"/>
+      <c r="D36" s="144"/>
+      <c r="E36" s="148">
+        <f>E6</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="149"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="149"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="149"/>
+      <c r="N36" s="149"/>
+      <c r="O36" s="149"/>
+      <c r="P36" s="149"/>
+      <c r="Q36" s="149"/>
+      <c r="R36" s="149"/>
+      <c r="S36" s="149"/>
+      <c r="T36" s="149"/>
+      <c r="U36" s="149"/>
+      <c r="V36" s="149"/>
+      <c r="W36" s="149"/>
+      <c r="X36" s="149"/>
+      <c r="Y36" s="149"/>
+      <c r="Z36" s="149"/>
+      <c r="AA36" s="149"/>
+      <c r="AB36" s="149"/>
+      <c r="AC36" s="149"/>
+      <c r="AD36" s="149"/>
+      <c r="AE36" s="149"/>
+      <c r="AF36" s="149"/>
+      <c r="AG36" s="150"/>
       <c r="AH36" s="26"/>
     </row>
     <row r="37" spans="1:116" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="83"/>
-      <c r="B37" s="84"/>
-      <c r="C37" s="84"/>
-      <c r="D37" s="85"/>
-      <c r="E37" s="89"/>
-      <c r="F37" s="90"/>
-      <c r="G37" s="90"/>
-      <c r="H37" s="90"/>
-      <c r="I37" s="90"/>
-      <c r="J37" s="90"/>
-      <c r="K37" s="90"/>
-      <c r="L37" s="90"/>
-      <c r="M37" s="90"/>
-      <c r="N37" s="90"/>
-      <c r="O37" s="90"/>
-      <c r="P37" s="90"/>
-      <c r="Q37" s="90"/>
-      <c r="R37" s="90"/>
-      <c r="S37" s="90"/>
-      <c r="T37" s="90"/>
-      <c r="U37" s="90"/>
-      <c r="V37" s="90"/>
-      <c r="W37" s="90"/>
-      <c r="X37" s="90"/>
-      <c r="Y37" s="90"/>
-      <c r="Z37" s="90"/>
-      <c r="AA37" s="90"/>
-      <c r="AB37" s="90"/>
-      <c r="AC37" s="90"/>
-      <c r="AD37" s="90"/>
-      <c r="AE37" s="90"/>
-      <c r="AF37" s="90"/>
-      <c r="AG37" s="91"/>
+      <c r="A37" s="145"/>
+      <c r="B37" s="146"/>
+      <c r="C37" s="146"/>
+      <c r="D37" s="147"/>
+      <c r="E37" s="151"/>
+      <c r="F37" s="152"/>
+      <c r="G37" s="152"/>
+      <c r="H37" s="152"/>
+      <c r="I37" s="152"/>
+      <c r="J37" s="152"/>
+      <c r="K37" s="152"/>
+      <c r="L37" s="152"/>
+      <c r="M37" s="152"/>
+      <c r="N37" s="152"/>
+      <c r="O37" s="152"/>
+      <c r="P37" s="152"/>
+      <c r="Q37" s="152"/>
+      <c r="R37" s="152"/>
+      <c r="S37" s="152"/>
+      <c r="T37" s="152"/>
+      <c r="U37" s="152"/>
+      <c r="V37" s="152"/>
+      <c r="W37" s="152"/>
+      <c r="X37" s="152"/>
+      <c r="Y37" s="152"/>
+      <c r="Z37" s="152"/>
+      <c r="AA37" s="152"/>
+      <c r="AB37" s="152"/>
+      <c r="AC37" s="152"/>
+      <c r="AD37" s="152"/>
+      <c r="AE37" s="152"/>
+      <c r="AF37" s="152"/>
+      <c r="AG37" s="153"/>
     </row>
     <row r="38" spans="1:116" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="92" t="s">
+      <c r="A38" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="93"/>
-      <c r="C38" s="93"/>
-      <c r="D38" s="93"/>
-      <c r="E38" s="93"/>
-      <c r="F38" s="93"/>
-      <c r="G38" s="93"/>
-      <c r="H38" s="93"/>
-      <c r="I38" s="94"/>
+      <c r="B38" s="86"/>
+      <c r="C38" s="86"/>
+      <c r="D38" s="86"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="86"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="87"/>
       <c r="J38" s="27"/>
       <c r="K38" s="27"/>
       <c r="L38" s="27"/>
@@ -3456,136 +3469,136 @@
     </row>
     <row r="48" spans="1:116" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="29"/>
-      <c r="B48" s="95" t="s">
+      <c r="B48" s="122" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="96"/>
-      <c r="D48" s="96"/>
-      <c r="E48" s="97"/>
-      <c r="F48" s="101" t="s">
+      <c r="C48" s="123"/>
+      <c r="D48" s="123"/>
+      <c r="E48" s="124"/>
+      <c r="F48" s="128" t="s">
         <v>23</v>
       </c>
-      <c r="G48" s="102"/>
-      <c r="H48" s="103"/>
-      <c r="I48" s="104" t="s">
+      <c r="G48" s="129"/>
+      <c r="H48" s="130"/>
+      <c r="I48" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="J48" s="93"/>
-      <c r="K48" s="94"/>
-      <c r="L48" s="104">
+      <c r="J48" s="86"/>
+      <c r="K48" s="87"/>
+      <c r="L48" s="131">
         <v>7</v>
       </c>
-      <c r="M48" s="93"/>
-      <c r="N48" s="94"/>
-      <c r="O48" s="104">
+      <c r="M48" s="86"/>
+      <c r="N48" s="87"/>
+      <c r="O48" s="131">
         <v>14</v>
       </c>
-      <c r="P48" s="93"/>
-      <c r="Q48" s="94"/>
-      <c r="R48" s="104">
+      <c r="P48" s="86"/>
+      <c r="Q48" s="87"/>
+      <c r="R48" s="131">
         <v>28</v>
       </c>
-      <c r="S48" s="93"/>
-      <c r="T48" s="94"/>
-      <c r="U48" s="105" t="s">
+      <c r="S48" s="86"/>
+      <c r="T48" s="87"/>
+      <c r="U48" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="V48" s="106"/>
-      <c r="W48" s="107"/>
+      <c r="V48" s="111"/>
+      <c r="W48" s="112"/>
       <c r="AG48" s="32"/>
     </row>
     <row r="49" spans="1:33" ht="35.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="29"/>
-      <c r="B49" s="98"/>
-      <c r="C49" s="99"/>
-      <c r="D49" s="99"/>
-      <c r="E49" s="100"/>
-      <c r="F49" s="124" t="s">
+      <c r="B49" s="125"/>
+      <c r="C49" s="126"/>
+      <c r="D49" s="126"/>
+      <c r="E49" s="127"/>
+      <c r="F49" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="G49" s="125"/>
-      <c r="H49" s="126"/>
-      <c r="I49" s="127"/>
-      <c r="J49" s="128"/>
-      <c r="K49" s="129"/>
-      <c r="L49" s="127"/>
-      <c r="M49" s="128"/>
-      <c r="N49" s="129"/>
-      <c r="O49" s="127"/>
-      <c r="P49" s="128"/>
-      <c r="Q49" s="129"/>
-      <c r="R49" s="127"/>
-      <c r="S49" s="128"/>
-      <c r="T49" s="129"/>
-      <c r="U49" s="108"/>
-      <c r="V49" s="109"/>
-      <c r="W49" s="110"/>
+      <c r="G49" s="117"/>
+      <c r="H49" s="118"/>
+      <c r="I49" s="119"/>
+      <c r="J49" s="120"/>
+      <c r="K49" s="121"/>
+      <c r="L49" s="119"/>
+      <c r="M49" s="120"/>
+      <c r="N49" s="121"/>
+      <c r="O49" s="119"/>
+      <c r="P49" s="120"/>
+      <c r="Q49" s="121"/>
+      <c r="R49" s="119"/>
+      <c r="S49" s="120"/>
+      <c r="T49" s="121"/>
+      <c r="U49" s="113"/>
+      <c r="V49" s="114"/>
+      <c r="W49" s="115"/>
       <c r="AG49" s="32"/>
     </row>
     <row r="50" spans="1:33" ht="35.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="29"/>
-      <c r="B50" s="116" t="s">
+      <c r="B50" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="C50" s="117"/>
-      <c r="D50" s="117"/>
-      <c r="E50" s="118"/>
-      <c r="F50" s="119" t="s">
+      <c r="C50" s="108"/>
+      <c r="D50" s="108"/>
+      <c r="E50" s="109"/>
+      <c r="F50" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="G50" s="120"/>
-      <c r="H50" s="121"/>
+      <c r="G50" s="97"/>
+      <c r="H50" s="98"/>
       <c r="I50" s="66"/>
-      <c r="J50" s="156"/>
-      <c r="K50" s="157"/>
+      <c r="J50" s="99"/>
+      <c r="K50" s="100"/>
       <c r="L50" s="63"/>
-      <c r="M50" s="156"/>
-      <c r="N50" s="157"/>
+      <c r="M50" s="99"/>
+      <c r="N50" s="100"/>
       <c r="O50" s="63"/>
-      <c r="P50" s="156"/>
-      <c r="Q50" s="157"/>
+      <c r="P50" s="99"/>
+      <c r="Q50" s="100"/>
       <c r="R50" s="63"/>
-      <c r="S50" s="156"/>
-      <c r="T50" s="157"/>
-      <c r="U50" s="113">
+      <c r="S50" s="99"/>
+      <c r="T50" s="100"/>
+      <c r="U50" s="101">
         <f>U20</f>
         <v>0</v>
       </c>
-      <c r="V50" s="114"/>
-      <c r="W50" s="115"/>
+      <c r="V50" s="102"/>
+      <c r="W50" s="103"/>
       <c r="AG50" s="32"/>
     </row>
     <row r="51" spans="1:33" ht="35.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="29"/>
-      <c r="B51" s="116" t="s">
+      <c r="B51" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="117"/>
-      <c r="D51" s="117"/>
-      <c r="E51" s="118"/>
-      <c r="F51" s="119" t="s">
+      <c r="C51" s="108"/>
+      <c r="D51" s="108"/>
+      <c r="E51" s="109"/>
+      <c r="F51" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="G51" s="120"/>
-      <c r="H51" s="121"/>
+      <c r="G51" s="97"/>
+      <c r="H51" s="98"/>
       <c r="I51" s="66"/>
-      <c r="J51" s="156"/>
-      <c r="K51" s="157"/>
+      <c r="J51" s="99"/>
+      <c r="K51" s="100"/>
       <c r="L51" s="63"/>
-      <c r="M51" s="156"/>
-      <c r="N51" s="157"/>
+      <c r="M51" s="99"/>
+      <c r="N51" s="100"/>
       <c r="O51" s="63"/>
-      <c r="P51" s="156"/>
-      <c r="Q51" s="157"/>
+      <c r="P51" s="99"/>
+      <c r="Q51" s="100"/>
       <c r="R51" s="63"/>
-      <c r="S51" s="156"/>
-      <c r="T51" s="157"/>
-      <c r="U51" s="113">
+      <c r="S51" s="99"/>
+      <c r="T51" s="100"/>
+      <c r="U51" s="101">
         <f>U21</f>
         <v>0</v>
       </c>
-      <c r="V51" s="114"/>
-      <c r="W51" s="115"/>
+      <c r="V51" s="102"/>
+      <c r="W51" s="103"/>
       <c r="AB51" s="4" t="s">
         <v>1</v>
       </c>
@@ -3593,35 +3606,35 @@
     </row>
     <row r="52" spans="1:33" ht="35.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="29"/>
-      <c r="B52" s="116" t="s">
+      <c r="B52" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="122"/>
-      <c r="D52" s="122"/>
-      <c r="E52" s="123"/>
-      <c r="F52" s="119" t="s">
+      <c r="C52" s="106"/>
+      <c r="D52" s="106"/>
+      <c r="E52" s="107"/>
+      <c r="F52" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="G52" s="120"/>
-      <c r="H52" s="121"/>
+      <c r="G52" s="97"/>
+      <c r="H52" s="98"/>
       <c r="I52" s="66"/>
-      <c r="J52" s="156"/>
-      <c r="K52" s="157"/>
+      <c r="J52" s="99"/>
+      <c r="K52" s="100"/>
       <c r="L52" s="63"/>
-      <c r="M52" s="156"/>
-      <c r="N52" s="157"/>
+      <c r="M52" s="99"/>
+      <c r="N52" s="100"/>
       <c r="O52" s="63"/>
-      <c r="P52" s="156"/>
-      <c r="Q52" s="157"/>
+      <c r="P52" s="99"/>
+      <c r="Q52" s="100"/>
       <c r="R52" s="63"/>
-      <c r="S52" s="156"/>
-      <c r="T52" s="157"/>
-      <c r="U52" s="113">
+      <c r="S52" s="99"/>
+      <c r="T52" s="100"/>
+      <c r="U52" s="101">
         <f>U22</f>
         <v>0</v>
       </c>
-      <c r="V52" s="114"/>
-      <c r="W52" s="115"/>
+      <c r="V52" s="102"/>
+      <c r="W52" s="103"/>
       <c r="AG52" s="32"/>
     </row>
     <row r="53" spans="1:33" ht="35.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3632,29 +3645,29 @@
       <c r="C53" s="44"/>
       <c r="D53" s="44"/>
       <c r="E53" s="45"/>
-      <c r="F53" s="119" t="s">
+      <c r="F53" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="G53" s="120"/>
-      <c r="H53" s="121"/>
+      <c r="G53" s="97"/>
+      <c r="H53" s="98"/>
       <c r="I53" s="66"/>
-      <c r="J53" s="156"/>
-      <c r="K53" s="157"/>
+      <c r="J53" s="99"/>
+      <c r="K53" s="100"/>
       <c r="L53" s="63"/>
-      <c r="M53" s="156"/>
-      <c r="N53" s="157"/>
+      <c r="M53" s="99"/>
+      <c r="N53" s="100"/>
       <c r="O53" s="63"/>
-      <c r="P53" s="156"/>
-      <c r="Q53" s="157"/>
+      <c r="P53" s="99"/>
+      <c r="Q53" s="100"/>
       <c r="R53" s="63"/>
-      <c r="S53" s="156"/>
-      <c r="T53" s="157"/>
-      <c r="U53" s="113">
+      <c r="S53" s="99"/>
+      <c r="T53" s="100"/>
+      <c r="U53" s="101">
         <f>U23</f>
         <v>0</v>
       </c>
-      <c r="V53" s="114"/>
-      <c r="W53" s="115"/>
+      <c r="V53" s="102"/>
+      <c r="W53" s="103"/>
       <c r="AG53" s="32"/>
     </row>
     <row r="54" spans="1:33" ht="35.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3665,29 +3678,29 @@
       <c r="C54" s="47"/>
       <c r="D54" s="47"/>
       <c r="E54" s="48"/>
-      <c r="F54" s="130" t="s">
+      <c r="F54" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="G54" s="120"/>
-      <c r="H54" s="121"/>
+      <c r="G54" s="97"/>
+      <c r="H54" s="98"/>
       <c r="I54" s="66"/>
-      <c r="J54" s="156"/>
-      <c r="K54" s="157"/>
+      <c r="J54" s="99"/>
+      <c r="K54" s="100"/>
       <c r="L54" s="63"/>
-      <c r="M54" s="156"/>
-      <c r="N54" s="157"/>
+      <c r="M54" s="99"/>
+      <c r="N54" s="100"/>
       <c r="O54" s="63"/>
-      <c r="P54" s="156"/>
-      <c r="Q54" s="157"/>
+      <c r="P54" s="99"/>
+      <c r="Q54" s="100"/>
       <c r="R54" s="63"/>
-      <c r="S54" s="156"/>
-      <c r="T54" s="157"/>
-      <c r="U54" s="113">
+      <c r="S54" s="99"/>
+      <c r="T54" s="100"/>
+      <c r="U54" s="101">
         <f>U24</f>
         <v>0</v>
       </c>
-      <c r="V54" s="114"/>
-      <c r="W54" s="115"/>
+      <c r="V54" s="102"/>
+      <c r="W54" s="103"/>
       <c r="AG54" s="32"/>
     </row>
     <row r="55" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3730,13 +3743,13 @@
       <c r="AG55" s="38"/>
     </row>
     <row r="56" spans="1:33" ht="35.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="92" t="s">
+      <c r="A56" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="B56" s="93"/>
-      <c r="C56" s="93"/>
-      <c r="D56" s="93"/>
-      <c r="E56" s="94"/>
+      <c r="B56" s="86"/>
+      <c r="C56" s="86"/>
+      <c r="D56" s="86"/>
+      <c r="E56" s="87"/>
       <c r="F56" s="27"/>
       <c r="G56" s="27"/>
       <c r="H56" s="27"/>
@@ -3800,56 +3813,192 @@
       <c r="AG59" s="32"/>
     </row>
     <row r="60" spans="1:33" s="52" customFormat="1" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="131" t="s">
+      <c r="A60" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="B60" s="132"/>
-      <c r="C60" s="133"/>
-      <c r="D60" s="134" t="str">
+      <c r="B60" s="71"/>
+      <c r="C60" s="89"/>
+      <c r="D60" s="90" t="str">
         <f>D30</f>
         <v>적합</v>
       </c>
-      <c r="E60" s="135"/>
-      <c r="F60" s="135"/>
-      <c r="G60" s="135"/>
-      <c r="H60" s="136"/>
-      <c r="I60" s="137" t="s">
+      <c r="E60" s="91"/>
+      <c r="F60" s="91"/>
+      <c r="G60" s="91"/>
+      <c r="H60" s="92"/>
+      <c r="I60" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="J60" s="132"/>
-      <c r="K60" s="138"/>
-      <c r="L60" s="139">
+      <c r="J60" s="71"/>
+      <c r="K60" s="72"/>
+      <c r="L60" s="93">
         <f>R49+5</f>
         <v>5</v>
       </c>
-      <c r="M60" s="140"/>
-      <c r="N60" s="140"/>
-      <c r="O60" s="141"/>
-      <c r="P60" s="137" t="s">
+      <c r="M60" s="94"/>
+      <c r="N60" s="94"/>
+      <c r="O60" s="95"/>
+      <c r="P60" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="Q60" s="132"/>
-      <c r="R60" s="132"/>
-      <c r="S60" s="138"/>
-      <c r="T60" s="142"/>
-      <c r="U60" s="143"/>
-      <c r="V60" s="143"/>
-      <c r="W60" s="143"/>
-      <c r="X60" s="144"/>
-      <c r="Y60" s="137" t="s">
+      <c r="Q60" s="71"/>
+      <c r="R60" s="71"/>
+      <c r="S60" s="72"/>
+      <c r="T60" s="67"/>
+      <c r="U60" s="68"/>
+      <c r="V60" s="68"/>
+      <c r="W60" s="68"/>
+      <c r="X60" s="69"/>
+      <c r="Y60" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="Z60" s="132"/>
-      <c r="AA60" s="132"/>
-      <c r="AB60" s="138"/>
-      <c r="AC60" s="142"/>
-      <c r="AD60" s="143"/>
-      <c r="AE60" s="143"/>
-      <c r="AF60" s="143"/>
-      <c r="AG60" s="145"/>
+      <c r="Z60" s="71"/>
+      <c r="AA60" s="71"/>
+      <c r="AB60" s="72"/>
+      <c r="AC60" s="67"/>
+      <c r="AD60" s="68"/>
+      <c r="AE60" s="68"/>
+      <c r="AF60" s="68"/>
+      <c r="AG60" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="160">
+    <mergeCell ref="BA2:BD2"/>
+    <mergeCell ref="DA2:DD2"/>
+    <mergeCell ref="DE2:DH2"/>
+    <mergeCell ref="DI2:DL2"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="AA3:AG3"/>
+    <mergeCell ref="X4:Z4"/>
+    <mergeCell ref="AA4:AG4"/>
+    <mergeCell ref="CC2:CF2"/>
+    <mergeCell ref="CG2:CJ2"/>
+    <mergeCell ref="CK2:CN2"/>
+    <mergeCell ref="CO2:CR2"/>
+    <mergeCell ref="CS2:CV2"/>
+    <mergeCell ref="CW2:CZ2"/>
+    <mergeCell ref="BE2:BH2"/>
+    <mergeCell ref="BI2:BL2"/>
+    <mergeCell ref="BM2:BP2"/>
+    <mergeCell ref="BQ2:BT2"/>
+    <mergeCell ref="BU2:BX2"/>
+    <mergeCell ref="BY2:CB2"/>
+    <mergeCell ref="AH2:AJ2"/>
+    <mergeCell ref="AK2:AN2"/>
+    <mergeCell ref="AO2:AR2"/>
+    <mergeCell ref="AS2:AV2"/>
+    <mergeCell ref="AW2:AZ2"/>
+    <mergeCell ref="A6:D7"/>
+    <mergeCell ref="E6:AG7"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="B18:E19"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="U18:W19"/>
+    <mergeCell ref="U5:X5"/>
+    <mergeCell ref="Y5:AG5"/>
+    <mergeCell ref="U20:W20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="U21:W21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="U22:W22"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="U23:W23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="U24:W24"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="P30:S30"/>
+    <mergeCell ref="AS32:AV32"/>
+    <mergeCell ref="AW32:AZ32"/>
+    <mergeCell ref="BA32:BD32"/>
+    <mergeCell ref="BE32:BH32"/>
+    <mergeCell ref="BI32:BL32"/>
+    <mergeCell ref="BM32:BP32"/>
+    <mergeCell ref="T30:X30"/>
+    <mergeCell ref="Y30:AB30"/>
+    <mergeCell ref="AC30:AG30"/>
+    <mergeCell ref="AH32:AJ32"/>
+    <mergeCell ref="AK32:AN32"/>
+    <mergeCell ref="AO32:AR32"/>
+    <mergeCell ref="CO32:CR32"/>
+    <mergeCell ref="CS32:CV32"/>
+    <mergeCell ref="CW32:CZ32"/>
+    <mergeCell ref="DA32:DD32"/>
+    <mergeCell ref="DE32:DH32"/>
+    <mergeCell ref="DI32:DL32"/>
+    <mergeCell ref="BQ32:BT32"/>
+    <mergeCell ref="BU32:BX32"/>
+    <mergeCell ref="BY32:CB32"/>
+    <mergeCell ref="CC32:CF32"/>
+    <mergeCell ref="CG32:CJ32"/>
+    <mergeCell ref="CK32:CN32"/>
+    <mergeCell ref="A38:I38"/>
+    <mergeCell ref="B48:E49"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="L48:N48"/>
+    <mergeCell ref="O48:Q48"/>
+    <mergeCell ref="R48:T48"/>
+    <mergeCell ref="X33:Z33"/>
+    <mergeCell ref="AA33:AG33"/>
+    <mergeCell ref="X34:Z34"/>
+    <mergeCell ref="AA34:AG34"/>
+    <mergeCell ref="A36:D37"/>
+    <mergeCell ref="E36:AG37"/>
+    <mergeCell ref="Q35:T35"/>
+    <mergeCell ref="U35:X35"/>
+    <mergeCell ref="Y35:AG35"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="S50:T50"/>
+    <mergeCell ref="U50:W50"/>
+    <mergeCell ref="U48:W49"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="L49:N49"/>
+    <mergeCell ref="O49:Q49"/>
+    <mergeCell ref="R49:T49"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="S53:T53"/>
+    <mergeCell ref="U53:W53"/>
+    <mergeCell ref="U51:W51"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="U52:W52"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="S51:T51"/>
     <mergeCell ref="T60:X60"/>
     <mergeCell ref="Y60:AB60"/>
     <mergeCell ref="AC60:AG60"/>
@@ -3874,142 +4023,6 @@
     <mergeCell ref="F53:H53"/>
     <mergeCell ref="J53:K53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="S53:T53"/>
-    <mergeCell ref="U53:W53"/>
-    <mergeCell ref="U51:W51"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="S52:T52"/>
-    <mergeCell ref="U52:W52"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="S51:T51"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="S50:T50"/>
-    <mergeCell ref="U50:W50"/>
-    <mergeCell ref="U48:W49"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="L49:N49"/>
-    <mergeCell ref="O49:Q49"/>
-    <mergeCell ref="R49:T49"/>
-    <mergeCell ref="A38:I38"/>
-    <mergeCell ref="B48:E49"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="L48:N48"/>
-    <mergeCell ref="O48:Q48"/>
-    <mergeCell ref="R48:T48"/>
-    <mergeCell ref="X33:Z33"/>
-    <mergeCell ref="AA33:AG33"/>
-    <mergeCell ref="X34:Z34"/>
-    <mergeCell ref="AA34:AG34"/>
-    <mergeCell ref="A36:D37"/>
-    <mergeCell ref="E36:AG37"/>
-    <mergeCell ref="Q35:T35"/>
-    <mergeCell ref="U35:X35"/>
-    <mergeCell ref="Y35:AG35"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="CO32:CR32"/>
-    <mergeCell ref="CS32:CV32"/>
-    <mergeCell ref="CW32:CZ32"/>
-    <mergeCell ref="DA32:DD32"/>
-    <mergeCell ref="DE32:DH32"/>
-    <mergeCell ref="DI32:DL32"/>
-    <mergeCell ref="BQ32:BT32"/>
-    <mergeCell ref="BU32:BX32"/>
-    <mergeCell ref="BY32:CB32"/>
-    <mergeCell ref="CC32:CF32"/>
-    <mergeCell ref="CG32:CJ32"/>
-    <mergeCell ref="CK32:CN32"/>
-    <mergeCell ref="AS32:AV32"/>
-    <mergeCell ref="AW32:AZ32"/>
-    <mergeCell ref="BA32:BD32"/>
-    <mergeCell ref="BE32:BH32"/>
-    <mergeCell ref="BI32:BL32"/>
-    <mergeCell ref="BM32:BP32"/>
-    <mergeCell ref="T30:X30"/>
-    <mergeCell ref="Y30:AB30"/>
-    <mergeCell ref="AC30:AG30"/>
-    <mergeCell ref="AH32:AJ32"/>
-    <mergeCell ref="AK32:AN32"/>
-    <mergeCell ref="AO32:AR32"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="U23:W23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="U24:W24"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="P30:S30"/>
-    <mergeCell ref="U20:W20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="U21:W21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="U22:W22"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="AW2:AZ2"/>
-    <mergeCell ref="A6:D7"/>
-    <mergeCell ref="E6:AG7"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="B18:E19"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="U18:W19"/>
-    <mergeCell ref="U5:X5"/>
-    <mergeCell ref="Y5:AG5"/>
-    <mergeCell ref="BA2:BD2"/>
-    <mergeCell ref="DA2:DD2"/>
-    <mergeCell ref="DE2:DH2"/>
-    <mergeCell ref="DI2:DL2"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="AA3:AG3"/>
-    <mergeCell ref="X4:Z4"/>
-    <mergeCell ref="AA4:AG4"/>
-    <mergeCell ref="CC2:CF2"/>
-    <mergeCell ref="CG2:CJ2"/>
-    <mergeCell ref="CK2:CN2"/>
-    <mergeCell ref="CO2:CR2"/>
-    <mergeCell ref="CS2:CV2"/>
-    <mergeCell ref="CW2:CZ2"/>
-    <mergeCell ref="BE2:BH2"/>
-    <mergeCell ref="BI2:BL2"/>
-    <mergeCell ref="BM2:BP2"/>
-    <mergeCell ref="BQ2:BT2"/>
-    <mergeCell ref="BU2:BX2"/>
-    <mergeCell ref="BY2:CB2"/>
-    <mergeCell ref="AH2:AJ2"/>
-    <mergeCell ref="AK2:AN2"/>
-    <mergeCell ref="AO2:AR2"/>
-    <mergeCell ref="AS2:AV2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -4020,6 +4033,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8ab0f804-2f3f-4076-aefa-068c53a2c631">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101004E0BCB6CD5F99847BF2D75DDC06E36AA" ma:contentTypeVersion="9" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="27b76a65def3f0510dbfffab4bf63a20">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8ab0f804-2f3f-4076-aefa-068c53a2c631" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d867220c34a4b94053e7547706411462" ns2:_="">
     <xsd:import namespace="8ab0f804-2f3f-4076-aefa-068c53a2c631"/>
@@ -4191,16 +4214,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8ab0f804-2f3f-4076-aefa-068c53a2c631">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4211,6 +4224,16 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF45BD0A-ABC3-4473-AF93-85296BD91F83}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8ab0f804-2f3f-4076-aefa-068c53a2c631"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09765C4C-65C7-4F3E-9C7F-0A6F69C73445}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4228,16 +4251,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF45BD0A-ABC3-4473-AF93-85296BD91F83}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8ab0f804-2f3f-4076-aefa-068c53a2c631"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4BFAFD63-2C88-468B-A0EA-AF222EFACFCE}">
   <ds:schemaRefs>
